--- a/Data Files/Input Validation/35. foreignType/Auto_ForeignType_C9.xlsx
+++ b/Data Files/Input Validation/35. foreignType/Auto_ForeignType_C9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\35. foreignType\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1211998-5267-4643-95F4-45B616A50F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663706FB-A849-421D-BA9D-D52E6B4A3C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -231,9 +231,6 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
-  </si>
-  <si>
     <t>foreignType</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>htn3-615-17vsaajik6</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -808,10 +808,10 @@
     </row>
     <row r="2" spans="1:51 16384:16384" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -823,7 +823,7 @@
         <v>47</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>48</v>

--- a/Data Files/Input Validation/35. foreignType/Auto_ForeignType_C9.xlsx
+++ b/Data Files/Input Validation/35. foreignType/Auto_ForeignType_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663706FB-A849-421D-BA9D-D52E6B4A3C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DE9D51-55C1-4FC7-879F-20EC5D8976BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
     <t>htn3-615-17vsaajik6</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/35. foreignType/Auto_ForeignType_C9.xlsx
+++ b/Data Files/Input Validation/35. foreignType/Auto_ForeignType_C9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DE9D51-55C1-4FC7-879F-20EC5D8976BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7358C6-31A2-4F12-868E-9A374D899F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>contractNo</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -906,7 +909,7 @@
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
       <c r="AP2" s="3" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>51</v>

--- a/Data Files/Input Validation/35. foreignType/Auto_ForeignType_C9.xlsx
+++ b/Data Files/Input Validation/35. foreignType/Auto_ForeignType_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7358C6-31A2-4F12-868E-9A374D899F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1587256E-3350-4BBB-8A58-F26DF25F72F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -240,10 +240,10 @@
     <t>htn3-615-17vsaajik6</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t/>
   </si>
   <si>
-    <t/>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -814,7 +814,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -909,7 +909,7 @@
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
       <c r="AP2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>51</v>

--- a/Data Files/Input Validation/35. foreignType/Auto_ForeignType_C9.xlsx
+++ b/Data Files/Input Validation/35. foreignType/Auto_ForeignType_C9.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1587256E-3350-4BBB-8A58-F26DF25F72F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9135FAD-E1C9-494A-BB67-5129671E3F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -243,7 +243,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -614,57 +614,56 @@
       <selection activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="13" width="10.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.44140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="20.109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="10.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="1" customWidth="1"/>
     <col min="22" max="22" width="22" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7.44140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.88671875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.88671875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="4.5546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.6640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="13.44140625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="14.109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.6640625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="8.77734375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="14.140625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="11.7109375" style="1" customWidth="1"/>
+    <col min="35" max="36" width="8.7109375" style="1" customWidth="1"/>
     <col min="37" max="37" width="9" style="1" customWidth="1"/>
-    <col min="38" max="38" width="42.77734375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="42.7109375" style="1" customWidth="1"/>
     <col min="39" max="39" width="10" style="1" customWidth="1"/>
-    <col min="40" max="40" width="12.77734375" style="1" customWidth="1"/>
-    <col min="41" max="41" width="14.44140625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="11.6640625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="17.21875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="18.44140625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="10.21875" style="1" customWidth="1"/>
-    <col min="46" max="46" width="8.77734375" style="1" customWidth="1"/>
-    <col min="47" max="16381" width="2.6640625" style="1"/>
-    <col min="16384" max="16384" width="2.6640625" style="1"/>
+    <col min="40" max="40" width="12.7109375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="14.42578125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="11.7109375" style="1" customWidth="1"/>
+    <col min="43" max="43" width="17.28515625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="18.42578125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="10.28515625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="8.7109375" style="1" customWidth="1"/>
+    <col min="47" max="16381" width="2.7109375" style="1"/>
+    <col min="16384" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51 16384:16384" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51 16384:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -809,7 +808,7 @@
       <c r="AX1" s="2"/>
       <c r="AY1" s="2"/>
     </row>
-    <row r="2" spans="1:51 16384:16384" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51 16384:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -929,7 +928,7 @@
       <c r="AX2" s="2"/>
       <c r="AY2" s="2"/>
     </row>
-    <row r="3" spans="1:51 16384:16384" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51 16384:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -983,7 +982,7 @@
       <c r="AY3" s="2"/>
       <c r="XFD3"/>
     </row>
-    <row r="4" spans="1:51 16384:16384" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51 16384:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1036,7 +1035,7 @@
       <c r="AX4" s="2"/>
       <c r="AY4" s="2"/>
     </row>
-    <row r="5" spans="1:51 16384:16384" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51 16384:16384" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1089,7 +1088,7 @@
       <c r="AX5" s="2"/>
       <c r="AY5" s="2"/>
     </row>
-    <row r="6" spans="1:51 16384:16384" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1142,7 +1141,7 @@
       <c r="AX6" s="2"/>
       <c r="AY6" s="2"/>
     </row>
-    <row r="7" spans="1:51 16384:16384" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1193,7 +1192,7 @@
       <c r="AX7" s="2"/>
       <c r="AY7" s="2"/>
     </row>
-    <row r="8" spans="1:51 16384:16384" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51 16384:16384" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
@@ -1244,7 +1243,7 @@
       <c r="AX8" s="2"/>
       <c r="AY8" s="2"/>
     </row>
-    <row r="9" spans="1:51 16384:16384" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51 16384:16384" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="2"/>
@@ -1295,7 +1294,7 @@
       <c r="AX9" s="2"/>
       <c r="AY9" s="2"/>
     </row>
-    <row r="10" spans="1:51 16384:16384" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
@@ -1346,7 +1345,7 @@
       <c r="AX10" s="2"/>
       <c r="AY10" s="2"/>
     </row>
-    <row r="11" spans="1:51 16384:16384" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51 16384:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
@@ -1397,7 +1396,7 @@
       <c r="AX11" s="2"/>
       <c r="AY11" s="2"/>
     </row>
-    <row r="12" spans="1:51 16384:16384" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51 16384:16384" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1450,7 +1449,7 @@
       <c r="AX12" s="2"/>
       <c r="AY12" s="2"/>
     </row>
-    <row r="13" spans="1:51 16384:16384" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51 16384:16384" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1501,7 +1500,7 @@
       <c r="AX13" s="2"/>
       <c r="AY13" s="2"/>
     </row>
-    <row r="14" spans="1:51 16384:16384" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51 16384:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1554,7 +1553,7 @@
       <c r="AX14" s="2"/>
       <c r="AY14" s="2"/>
     </row>
-    <row r="15" spans="1:51 16384:16384" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51 16384:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1607,7 +1606,7 @@
       <c r="AX15" s="2"/>
       <c r="AY15" s="2"/>
     </row>
-    <row r="16" spans="1:51 16384:16384" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51 16384:16384" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1660,7 +1659,7 @@
       <c r="AX16" s="2"/>
       <c r="AY16" s="2"/>
     </row>
-    <row r="17" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1713,7 +1712,7 @@
       <c r="AX17" s="2"/>
       <c r="AY17" s="2"/>
     </row>
-    <row r="18" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1766,7 +1765,7 @@
       <c r="AX18" s="2"/>
       <c r="AY18" s="2"/>
     </row>
-    <row r="19" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1819,7 +1818,7 @@
       <c r="AX19" s="2"/>
       <c r="AY19" s="2"/>
     </row>
-    <row r="20" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1872,7 +1871,7 @@
       <c r="AX20" s="2"/>
       <c r="AY20" s="2"/>
     </row>
-    <row r="21" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1925,7 +1924,7 @@
       <c r="AX21" s="2"/>
       <c r="AY21" s="2"/>
     </row>
-    <row r="22" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1978,7 +1977,7 @@
       <c r="AX22" s="2"/>
       <c r="AY22" s="2"/>
     </row>
-    <row r="23" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2031,7 +2030,7 @@
       <c r="AX23" s="2"/>
       <c r="AY23" s="2"/>
     </row>
-    <row r="24" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2084,7 +2083,7 @@
       <c r="AX24" s="2"/>
       <c r="AY24" s="2"/>
     </row>
-    <row r="25" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2137,7 +2136,7 @@
       <c r="AX25" s="2"/>
       <c r="AY25" s="2"/>
     </row>
-    <row r="26" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2190,7 +2189,7 @@
       <c r="AX26" s="2"/>
       <c r="AY26" s="2"/>
     </row>
-    <row r="27" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2243,7 +2242,7 @@
       <c r="AX27" s="2"/>
       <c r="AY27" s="2"/>
     </row>
-    <row r="28" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2296,7 +2295,7 @@
       <c r="AX28" s="2"/>
       <c r="AY28" s="2"/>
     </row>
-    <row r="29" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2349,7 +2348,7 @@
       <c r="AX29" s="2"/>
       <c r="AY29" s="2"/>
     </row>
-    <row r="30" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2402,7 +2401,7 @@
       <c r="AX30" s="2"/>
       <c r="AY30" s="2"/>
     </row>
-    <row r="31" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2455,7 +2454,7 @@
       <c r="AX31" s="2"/>
       <c r="AY31" s="2"/>
     </row>
-    <row r="32" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2508,7 +2507,7 @@
       <c r="AX32" s="2"/>
       <c r="AY32" s="2"/>
     </row>
-    <row r="33" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2561,7 +2560,7 @@
       <c r="AX33" s="2"/>
       <c r="AY33" s="2"/>
     </row>
-    <row r="34" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2614,7 +2613,7 @@
       <c r="AX34" s="2"/>
       <c r="AY34" s="2"/>
     </row>
-    <row r="35" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2667,7 +2666,7 @@
       <c r="AX35" s="2"/>
       <c r="AY35" s="2"/>
     </row>
-    <row r="36" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2720,7 +2719,7 @@
       <c r="AX36" s="2"/>
       <c r="AY36" s="2"/>
     </row>
-    <row r="37" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2773,7 +2772,7 @@
       <c r="AX37" s="2"/>
       <c r="AY37" s="2"/>
     </row>
-    <row r="38" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2826,7 +2825,7 @@
       <c r="AX38" s="2"/>
       <c r="AY38" s="2"/>
     </row>
-    <row r="39" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2879,7 +2878,7 @@
       <c r="AX39" s="2"/>
       <c r="AY39" s="2"/>
     </row>
-    <row r="40" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2932,7 +2931,7 @@
       <c r="AX40" s="2"/>
       <c r="AY40" s="2"/>
     </row>
-    <row r="41" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2985,7 +2984,7 @@
       <c r="AX41" s="2"/>
       <c r="AY41" s="2"/>
     </row>
-    <row r="42" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3038,7 +3037,7 @@
       <c r="AX42" s="2"/>
       <c r="AY42" s="2"/>
     </row>
-    <row r="43" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3091,7 +3090,7 @@
       <c r="AX43" s="2"/>
       <c r="AY43" s="2"/>
     </row>
-    <row r="44" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3144,7 +3143,7 @@
       <c r="AX44" s="2"/>
       <c r="AY44" s="2"/>
     </row>
-    <row r="45" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3197,7 +3196,7 @@
       <c r="AX45" s="2"/>
       <c r="AY45" s="2"/>
     </row>
-    <row r="46" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3250,7 +3249,7 @@
       <c r="AX46" s="2"/>
       <c r="AY46" s="2"/>
     </row>
-    <row r="47" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3303,7 +3302,7 @@
       <c r="AX47" s="2"/>
       <c r="AY47" s="2"/>
     </row>
-    <row r="48" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3356,7 +3355,7 @@
       <c r="AX48" s="2"/>
       <c r="AY48" s="2"/>
     </row>
-    <row r="49" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3409,7 +3408,7 @@
       <c r="AX49" s="2"/>
       <c r="AY49" s="2"/>
     </row>
-    <row r="50" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3462,7 +3461,7 @@
       <c r="AX50" s="2"/>
       <c r="AY50" s="2"/>
     </row>
-    <row r="51" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3515,7 +3514,7 @@
       <c r="AX51" s="2"/>
       <c r="AY51" s="2"/>
     </row>
-    <row r="52" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3568,7 +3567,7 @@
       <c r="AX52" s="2"/>
       <c r="AY52" s="2"/>
     </row>
-    <row r="53" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3621,7 +3620,7 @@
       <c r="AX53" s="2"/>
       <c r="AY53" s="2"/>
     </row>
-    <row r="54" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3674,7 +3673,7 @@
       <c r="AX54" s="2"/>
       <c r="AY54" s="2"/>
     </row>
-    <row r="55" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3727,7 +3726,7 @@
       <c r="AX55" s="2"/>
       <c r="AY55" s="2"/>
     </row>
-    <row r="56" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3780,7 +3779,7 @@
       <c r="AX56" s="2"/>
       <c r="AY56" s="2"/>
     </row>
-    <row r="57" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3833,7 +3832,7 @@
       <c r="AX57" s="2"/>
       <c r="AY57" s="2"/>
     </row>
-    <row r="58" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3886,7 +3885,7 @@
       <c r="AX58" s="2"/>
       <c r="AY58" s="2"/>
     </row>
-    <row r="59" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3939,7 +3938,7 @@
       <c r="AX59" s="2"/>
       <c r="AY59" s="2"/>
     </row>
-    <row r="60" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3992,7 +3991,7 @@
       <c r="AX60" s="2"/>
       <c r="AY60" s="2"/>
     </row>
-    <row r="61" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4045,7 +4044,7 @@
       <c r="AX61" s="2"/>
       <c r="AY61" s="2"/>
     </row>
-    <row r="62" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4098,7 +4097,7 @@
       <c r="AX62" s="2"/>
       <c r="AY62" s="2"/>
     </row>
-    <row r="63" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4151,7 +4150,7 @@
       <c r="AX63" s="2"/>
       <c r="AY63" s="2"/>
     </row>
-    <row r="64" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4204,7 +4203,7 @@
       <c r="AX64" s="2"/>
       <c r="AY64" s="2"/>
     </row>
-    <row r="65" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4257,7 +4256,7 @@
       <c r="AX65" s="2"/>
       <c r="AY65" s="2"/>
     </row>
-    <row r="66" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4310,7 +4309,7 @@
       <c r="AX66" s="2"/>
       <c r="AY66" s="2"/>
     </row>
-    <row r="67" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4363,7 +4362,7 @@
       <c r="AX67" s="2"/>
       <c r="AY67" s="2"/>
     </row>
-    <row r="68" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4416,7 +4415,7 @@
       <c r="AX68" s="2"/>
       <c r="AY68" s="2"/>
     </row>
-    <row r="69" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4469,7 +4468,7 @@
       <c r="AX69" s="2"/>
       <c r="AY69" s="2"/>
     </row>
-    <row r="70" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4522,7 +4521,7 @@
       <c r="AX70" s="2"/>
       <c r="AY70" s="2"/>
     </row>
-    <row r="71" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4575,7 +4574,7 @@
       <c r="AX71" s="2"/>
       <c r="AY71" s="2"/>
     </row>
-    <row r="72" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4628,7 +4627,7 @@
       <c r="AX72" s="2"/>
       <c r="AY72" s="2"/>
     </row>
-    <row r="73" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4681,7 +4680,7 @@
       <c r="AX73" s="2"/>
       <c r="AY73" s="2"/>
     </row>
-    <row r="74" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4734,7 +4733,7 @@
       <c r="AX74" s="2"/>
       <c r="AY74" s="2"/>
     </row>
-    <row r="75" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4787,7 +4786,7 @@
       <c r="AX75" s="2"/>
       <c r="AY75" s="2"/>
     </row>
-    <row r="76" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4840,7 +4839,7 @@
       <c r="AX76" s="2"/>
       <c r="AY76" s="2"/>
     </row>
-    <row r="77" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4893,7 +4892,7 @@
       <c r="AX77" s="2"/>
       <c r="AY77" s="2"/>
     </row>
-    <row r="78" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4946,7 +4945,7 @@
       <c r="AX78" s="2"/>
       <c r="AY78" s="2"/>
     </row>
-    <row r="79" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4999,7 +4998,7 @@
       <c r="AX79" s="2"/>
       <c r="AY79" s="2"/>
     </row>
-    <row r="80" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5052,7 +5051,7 @@
       <c r="AX80" s="2"/>
       <c r="AY80" s="2"/>
     </row>
-    <row r="81" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5105,7 +5104,7 @@
       <c r="AX81" s="2"/>
       <c r="AY81" s="2"/>
     </row>
-    <row r="82" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5158,7 +5157,7 @@
       <c r="AX82" s="2"/>
       <c r="AY82" s="2"/>
     </row>
-    <row r="83" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5211,7 +5210,7 @@
       <c r="AX83" s="2"/>
       <c r="AY83" s="2"/>
     </row>
-    <row r="84" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5264,7 +5263,7 @@
       <c r="AX84" s="2"/>
       <c r="AY84" s="2"/>
     </row>
-    <row r="85" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5317,7 +5316,7 @@
       <c r="AX85" s="2"/>
       <c r="AY85" s="2"/>
     </row>
-    <row r="86" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5370,7 +5369,7 @@
       <c r="AX86" s="2"/>
       <c r="AY86" s="2"/>
     </row>
-    <row r="87" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5423,7 +5422,7 @@
       <c r="AX87" s="2"/>
       <c r="AY87" s="2"/>
     </row>
-    <row r="88" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5476,7 +5475,7 @@
       <c r="AX88" s="2"/>
       <c r="AY88" s="2"/>
     </row>
-    <row r="89" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5529,7 +5528,7 @@
       <c r="AX89" s="2"/>
       <c r="AY89" s="2"/>
     </row>
-    <row r="90" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5582,7 +5581,7 @@
       <c r="AX90" s="2"/>
       <c r="AY90" s="2"/>
     </row>
-    <row r="91" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5635,7 +5634,7 @@
       <c r="AX91" s="2"/>
       <c r="AY91" s="2"/>
     </row>
-    <row r="92" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5688,7 +5687,7 @@
       <c r="AX92" s="2"/>
       <c r="AY92" s="2"/>
     </row>
-    <row r="93" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5741,7 +5740,7 @@
       <c r="AX93" s="2"/>
       <c r="AY93" s="2"/>
     </row>
-    <row r="94" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5794,7 +5793,7 @@
       <c r="AX94" s="2"/>
       <c r="AY94" s="2"/>
     </row>
-    <row r="95" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5847,7 +5846,7 @@
       <c r="AX95" s="2"/>
       <c r="AY95" s="2"/>
     </row>
-    <row r="96" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5900,7 +5899,7 @@
       <c r="AX96" s="2"/>
       <c r="AY96" s="2"/>
     </row>
-    <row r="97" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5953,7 +5952,7 @@
       <c r="AX97" s="2"/>
       <c r="AY97" s="2"/>
     </row>
-    <row r="98" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -6006,7 +6005,7 @@
       <c r="AX98" s="2"/>
       <c r="AY98" s="2"/>
     </row>
-    <row r="99" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -6059,7 +6058,7 @@
       <c r="AX99" s="2"/>
       <c r="AY99" s="2"/>
     </row>
-    <row r="100" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6112,7 +6111,7 @@
       <c r="AX100" s="2"/>
       <c r="AY100" s="2"/>
     </row>
-    <row r="101" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -6165,7 +6164,7 @@
       <c r="AX101" s="2"/>
       <c r="AY101" s="2"/>
     </row>
-    <row r="102" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6218,7 +6217,7 @@
       <c r="AX102" s="2"/>
       <c r="AY102" s="2"/>
     </row>
-    <row r="103" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6271,7 +6270,7 @@
       <c r="AX103" s="2"/>
       <c r="AY103" s="2"/>
     </row>
-    <row r="104" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6324,7 +6323,7 @@
       <c r="AX104" s="2"/>
       <c r="AY104" s="2"/>
     </row>
-    <row r="105" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6377,7 +6376,7 @@
       <c r="AX105" s="2"/>
       <c r="AY105" s="2"/>
     </row>
-    <row r="106" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6430,7 +6429,7 @@
       <c r="AX106" s="2"/>
       <c r="AY106" s="2"/>
     </row>
-    <row r="107" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6483,7 +6482,7 @@
       <c r="AX107" s="2"/>
       <c r="AY107" s="2"/>
     </row>
-    <row r="108" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6536,7 +6535,7 @@
       <c r="AX108" s="2"/>
       <c r="AY108" s="2"/>
     </row>
-    <row r="109" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6589,7 +6588,7 @@
       <c r="AX109" s="2"/>
       <c r="AY109" s="2"/>
     </row>
-    <row r="110" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6642,7 +6641,7 @@
       <c r="AX110" s="2"/>
       <c r="AY110" s="2"/>
     </row>
-    <row r="111" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6695,7 +6694,7 @@
       <c r="AX111" s="2"/>
       <c r="AY111" s="2"/>
     </row>
-    <row r="112" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6748,7 +6747,7 @@
       <c r="AX112" s="2"/>
       <c r="AY112" s="2"/>
     </row>
-    <row r="113" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6801,7 +6800,7 @@
       <c r="AX113" s="2"/>
       <c r="AY113" s="2"/>
     </row>
-    <row r="114" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6854,7 +6853,7 @@
       <c r="AX114" s="2"/>
       <c r="AY114" s="2"/>
     </row>
-    <row r="115" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6907,7 +6906,7 @@
       <c r="AX115" s="2"/>
       <c r="AY115" s="2"/>
     </row>
-    <row r="116" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6960,7 +6959,7 @@
       <c r="AX116" s="2"/>
       <c r="AY116" s="2"/>
     </row>
-    <row r="117" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -7013,7 +7012,7 @@
       <c r="AX117" s="2"/>
       <c r="AY117" s="2"/>
     </row>
-    <row r="118" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -7066,7 +7065,7 @@
       <c r="AX118" s="2"/>
       <c r="AY118" s="2"/>
     </row>
-    <row r="119" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -7119,7 +7118,7 @@
       <c r="AX119" s="2"/>
       <c r="AY119" s="2"/>
     </row>
-    <row r="120" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -7172,7 +7171,7 @@
       <c r="AX120" s="2"/>
       <c r="AY120" s="2"/>
     </row>
-    <row r="121" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -7225,7 +7224,7 @@
       <c r="AX121" s="2"/>
       <c r="AY121" s="2"/>
     </row>
-    <row r="122" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -7278,7 +7277,7 @@
       <c r="AX122" s="2"/>
       <c r="AY122" s="2"/>
     </row>
-    <row r="123" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -7331,7 +7330,7 @@
       <c r="AX123" s="2"/>
       <c r="AY123" s="2"/>
     </row>
-    <row r="124" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -7384,7 +7383,7 @@
       <c r="AX124" s="2"/>
       <c r="AY124" s="2"/>
     </row>
-    <row r="125" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -7437,7 +7436,7 @@
       <c r="AX125" s="2"/>
       <c r="AY125" s="2"/>
     </row>
-    <row r="126" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -7490,7 +7489,7 @@
       <c r="AX126" s="2"/>
       <c r="AY126" s="2"/>
     </row>
-    <row r="127" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -7543,7 +7542,7 @@
       <c r="AX127" s="2"/>
       <c r="AY127" s="2"/>
     </row>
-    <row r="128" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -7596,7 +7595,7 @@
       <c r="AX128" s="2"/>
       <c r="AY128" s="2"/>
     </row>
-    <row r="129" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -7649,7 +7648,7 @@
       <c r="AX129" s="2"/>
       <c r="AY129" s="2"/>
     </row>
-    <row r="130" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7702,7 +7701,7 @@
       <c r="AX130" s="2"/>
       <c r="AY130" s="2"/>
     </row>
-    <row r="131" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7755,7 +7754,7 @@
       <c r="AX131" s="2"/>
       <c r="AY131" s="2"/>
     </row>
-    <row r="132" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -7808,7 +7807,7 @@
       <c r="AX132" s="2"/>
       <c r="AY132" s="2"/>
     </row>
-    <row r="133" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -7861,7 +7860,7 @@
       <c r="AX133" s="2"/>
       <c r="AY133" s="2"/>
     </row>
-    <row r="134" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -7914,7 +7913,7 @@
       <c r="AX134" s="2"/>
       <c r="AY134" s="2"/>
     </row>
-    <row r="135" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7967,7 +7966,7 @@
       <c r="AX135" s="2"/>
       <c r="AY135" s="2"/>
     </row>
-    <row r="136" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -8020,7 +8019,7 @@
       <c r="AX136" s="2"/>
       <c r="AY136" s="2"/>
     </row>
-    <row r="137" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -8073,7 +8072,7 @@
       <c r="AX137" s="2"/>
       <c r="AY137" s="2"/>
     </row>
-    <row r="138" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -8126,7 +8125,7 @@
       <c r="AX138" s="2"/>
       <c r="AY138" s="2"/>
     </row>
-    <row r="139" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -8179,7 +8178,7 @@
       <c r="AX139" s="2"/>
       <c r="AY139" s="2"/>
     </row>
-    <row r="140" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -8232,7 +8231,7 @@
       <c r="AX140" s="2"/>
       <c r="AY140" s="2"/>
     </row>
-    <row r="141" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -8285,7 +8284,7 @@
       <c r="AX141" s="2"/>
       <c r="AY141" s="2"/>
     </row>
-    <row r="142" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -8338,7 +8337,7 @@
       <c r="AX142" s="2"/>
       <c r="AY142" s="2"/>
     </row>
-    <row r="143" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -8391,7 +8390,7 @@
       <c r="AX143" s="2"/>
       <c r="AY143" s="2"/>
     </row>
-    <row r="144" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -8444,7 +8443,7 @@
       <c r="AX144" s="2"/>
       <c r="AY144" s="2"/>
     </row>
-    <row r="145" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -8497,7 +8496,7 @@
       <c r="AX145" s="2"/>
       <c r="AY145" s="2"/>
     </row>
-    <row r="146" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -8550,7 +8549,7 @@
       <c r="AX146" s="2"/>
       <c r="AY146" s="2"/>
     </row>
-    <row r="147" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -8603,7 +8602,7 @@
       <c r="AX147" s="2"/>
       <c r="AY147" s="2"/>
     </row>
-    <row r="148" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -8656,7 +8655,7 @@
       <c r="AX148" s="2"/>
       <c r="AY148" s="2"/>
     </row>
-    <row r="149" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -8709,7 +8708,7 @@
       <c r="AX149" s="2"/>
       <c r="AY149" s="2"/>
     </row>
-    <row r="150" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -8762,7 +8761,7 @@
       <c r="AX150" s="2"/>
       <c r="AY150" s="2"/>
     </row>
-    <row r="151" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -8815,7 +8814,7 @@
       <c r="AX151" s="2"/>
       <c r="AY151" s="2"/>
     </row>
-    <row r="152" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -8868,7 +8867,7 @@
       <c r="AX152" s="2"/>
       <c r="AY152" s="2"/>
     </row>
-    <row r="153" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -8921,7 +8920,7 @@
       <c r="AX153" s="2"/>
       <c r="AY153" s="2"/>
     </row>
-    <row r="154" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -8974,7 +8973,7 @@
       <c r="AX154" s="2"/>
       <c r="AY154" s="2"/>
     </row>
-    <row r="155" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -9027,7 +9026,7 @@
       <c r="AX155" s="2"/>
       <c r="AY155" s="2"/>
     </row>
-    <row r="156" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -9080,7 +9079,7 @@
       <c r="AX156" s="2"/>
       <c r="AY156" s="2"/>
     </row>
-    <row r="157" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -9133,7 +9132,7 @@
       <c r="AX157" s="2"/>
       <c r="AY157" s="2"/>
     </row>
-    <row r="158" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -9186,7 +9185,7 @@
       <c r="AX158" s="2"/>
       <c r="AY158" s="2"/>
     </row>
-    <row r="159" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -9239,7 +9238,7 @@
       <c r="AX159" s="2"/>
       <c r="AY159" s="2"/>
     </row>
-    <row r="160" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -9292,7 +9291,7 @@
       <c r="AX160" s="2"/>
       <c r="AY160" s="2"/>
     </row>
-    <row r="161" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -9345,7 +9344,7 @@
       <c r="AX161" s="2"/>
       <c r="AY161" s="2"/>
     </row>
-    <row r="162" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -9398,7 +9397,7 @@
       <c r="AX162" s="2"/>
       <c r="AY162" s="2"/>
     </row>
-    <row r="163" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -9451,7 +9450,7 @@
       <c r="AX163" s="2"/>
       <c r="AY163" s="2"/>
     </row>
-    <row r="164" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -9504,7 +9503,7 @@
       <c r="AX164" s="2"/>
       <c r="AY164" s="2"/>
     </row>
-    <row r="165" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -9557,7 +9556,7 @@
       <c r="AX165" s="2"/>
       <c r="AY165" s="2"/>
     </row>
-    <row r="166" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -9610,7 +9609,7 @@
       <c r="AX166" s="2"/>
       <c r="AY166" s="2"/>
     </row>
-    <row r="167" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -9663,7 +9662,7 @@
       <c r="AX167" s="2"/>
       <c r="AY167" s="2"/>
     </row>
-    <row r="168" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -9716,7 +9715,7 @@
       <c r="AX168" s="2"/>
       <c r="AY168" s="2"/>
     </row>
-    <row r="169" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -9769,7 +9768,7 @@
       <c r="AX169" s="2"/>
       <c r="AY169" s="2"/>
     </row>
-    <row r="170" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -9822,7 +9821,7 @@
       <c r="AX170" s="2"/>
       <c r="AY170" s="2"/>
     </row>
-    <row r="171" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -9875,7 +9874,7 @@
       <c r="AX171" s="2"/>
       <c r="AY171" s="2"/>
     </row>
-    <row r="172" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -9928,7 +9927,7 @@
       <c r="AX172" s="2"/>
       <c r="AY172" s="2"/>
     </row>
-    <row r="173" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -9981,7 +9980,7 @@
       <c r="AX173" s="2"/>
       <c r="AY173" s="2"/>
     </row>
-    <row r="174" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -10034,7 +10033,7 @@
       <c r="AX174" s="2"/>
       <c r="AY174" s="2"/>
     </row>
-    <row r="175" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -10087,7 +10086,7 @@
       <c r="AX175" s="2"/>
       <c r="AY175" s="2"/>
     </row>
-    <row r="176" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -10140,7 +10139,7 @@
       <c r="AX176" s="2"/>
       <c r="AY176" s="2"/>
     </row>
-    <row r="177" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -10193,7 +10192,7 @@
       <c r="AX177" s="2"/>
       <c r="AY177" s="2"/>
     </row>
-    <row r="178" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -10246,7 +10245,7 @@
       <c r="AX178" s="2"/>
       <c r="AY178" s="2"/>
     </row>
-    <row r="179" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -10299,7 +10298,7 @@
       <c r="AX179" s="2"/>
       <c r="AY179" s="2"/>
     </row>
-    <row r="180" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -10352,7 +10351,7 @@
       <c r="AX180" s="2"/>
       <c r="AY180" s="2"/>
     </row>
-    <row r="181" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -10405,7 +10404,7 @@
       <c r="AX181" s="2"/>
       <c r="AY181" s="2"/>
     </row>
-    <row r="182" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -10458,7 +10457,7 @@
       <c r="AX182" s="2"/>
       <c r="AY182" s="2"/>
     </row>
-    <row r="183" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -10511,7 +10510,7 @@
       <c r="AX183" s="2"/>
       <c r="AY183" s="2"/>
     </row>
-    <row r="184" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -10564,7 +10563,7 @@
       <c r="AX184" s="2"/>
       <c r="AY184" s="2"/>
     </row>
-    <row r="185" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -10617,7 +10616,7 @@
       <c r="AX185" s="2"/>
       <c r="AY185" s="2"/>
     </row>
-    <row r="186" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -10670,7 +10669,7 @@
       <c r="AX186" s="2"/>
       <c r="AY186" s="2"/>
     </row>
-    <row r="187" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -10723,7 +10722,7 @@
       <c r="AX187" s="2"/>
       <c r="AY187" s="2"/>
     </row>
-    <row r="188" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -10776,7 +10775,7 @@
       <c r="AX188" s="2"/>
       <c r="AY188" s="2"/>
     </row>
-    <row r="189" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -10829,7 +10828,7 @@
       <c r="AX189" s="2"/>
       <c r="AY189" s="2"/>
     </row>
-    <row r="190" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -10882,7 +10881,7 @@
       <c r="AX190" s="2"/>
       <c r="AY190" s="2"/>
     </row>
-    <row r="191" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -10935,7 +10934,7 @@
       <c r="AX191" s="2"/>
       <c r="AY191" s="2"/>
     </row>
-    <row r="192" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -10988,7 +10987,7 @@
       <c r="AX192" s="2"/>
       <c r="AY192" s="2"/>
     </row>
-    <row r="193" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -11041,7 +11040,7 @@
       <c r="AX193" s="2"/>
       <c r="AY193" s="2"/>
     </row>
-    <row r="194" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -11094,7 +11093,7 @@
       <c r="AX194" s="2"/>
       <c r="AY194" s="2"/>
     </row>
-    <row r="195" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -11147,7 +11146,7 @@
       <c r="AX195" s="2"/>
       <c r="AY195" s="2"/>
     </row>
-    <row r="196" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -11200,7 +11199,7 @@
       <c r="AX196" s="2"/>
       <c r="AY196" s="2"/>
     </row>
-    <row r="197" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -11253,7 +11252,7 @@
       <c r="AX197" s="2"/>
       <c r="AY197" s="2"/>
     </row>
-    <row r="198" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -11306,7 +11305,7 @@
       <c r="AX198" s="2"/>
       <c r="AY198" s="2"/>
     </row>
-    <row r="199" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -11359,7 +11358,7 @@
       <c r="AX199" s="2"/>
       <c r="AY199" s="2"/>
     </row>
-    <row r="200" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -11412,7 +11411,7 @@
       <c r="AX200" s="2"/>
       <c r="AY200" s="2"/>
     </row>
-    <row r="201" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -11465,7 +11464,7 @@
       <c r="AX201" s="2"/>
       <c r="AY201" s="2"/>
     </row>
-    <row r="202" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -11518,7 +11517,7 @@
       <c r="AX202" s="2"/>
       <c r="AY202" s="2"/>
     </row>
-    <row r="203" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -11571,7 +11570,7 @@
       <c r="AX203" s="2"/>
       <c r="AY203" s="2"/>
     </row>
-    <row r="204" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -11624,7 +11623,7 @@
       <c r="AX204" s="2"/>
       <c r="AY204" s="2"/>
     </row>
-    <row r="205" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -11677,7 +11676,7 @@
       <c r="AX205" s="2"/>
       <c r="AY205" s="2"/>
     </row>
-    <row r="206" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -11730,7 +11729,7 @@
       <c r="AX206" s="2"/>
       <c r="AY206" s="2"/>
     </row>
-    <row r="207" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -11783,7 +11782,7 @@
       <c r="AX207" s="2"/>
       <c r="AY207" s="2"/>
     </row>
-    <row r="208" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -11836,7 +11835,7 @@
       <c r="AX208" s="2"/>
       <c r="AY208" s="2"/>
     </row>
-    <row r="209" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -11889,7 +11888,7 @@
       <c r="AX209" s="2"/>
       <c r="AY209" s="2"/>
     </row>
-    <row r="210" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -11942,7 +11941,7 @@
       <c r="AX210" s="2"/>
       <c r="AY210" s="2"/>
     </row>
-    <row r="211" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -11995,7 +11994,7 @@
       <c r="AX211" s="2"/>
       <c r="AY211" s="2"/>
     </row>
-    <row r="212" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -12048,7 +12047,7 @@
       <c r="AX212" s="2"/>
       <c r="AY212" s="2"/>
     </row>
-    <row r="213" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -12101,7 +12100,7 @@
       <c r="AX213" s="2"/>
       <c r="AY213" s="2"/>
     </row>
-    <row r="214" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -12154,7 +12153,7 @@
       <c r="AX214" s="2"/>
       <c r="AY214" s="2"/>
     </row>
-    <row r="215" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -12207,7 +12206,7 @@
       <c r="AX215" s="2"/>
       <c r="AY215" s="2"/>
     </row>
-    <row r="216" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -12260,7 +12259,7 @@
       <c r="AX216" s="2"/>
       <c r="AY216" s="2"/>
     </row>
-    <row r="217" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -12313,7 +12312,7 @@
       <c r="AX217" s="2"/>
       <c r="AY217" s="2"/>
     </row>
-    <row r="218" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -12366,7 +12365,7 @@
       <c r="AX218" s="2"/>
       <c r="AY218" s="2"/>
     </row>
-    <row r="219" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -12419,7 +12418,7 @@
       <c r="AX219" s="2"/>
       <c r="AY219" s="2"/>
     </row>
-    <row r="220" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -12472,7 +12471,7 @@
       <c r="AX220" s="2"/>
       <c r="AY220" s="2"/>
     </row>
-    <row r="221" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -12525,7 +12524,7 @@
       <c r="AX221" s="2"/>
       <c r="AY221" s="2"/>
     </row>
-    <row r="222" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -12578,7 +12577,7 @@
       <c r="AX222" s="2"/>
       <c r="AY222" s="2"/>
     </row>
-    <row r="223" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -12631,7 +12630,7 @@
       <c r="AX223" s="2"/>
       <c r="AY223" s="2"/>
     </row>
-    <row r="224" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -12684,7 +12683,7 @@
       <c r="AX224" s="2"/>
       <c r="AY224" s="2"/>
     </row>
-    <row r="225" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -12737,7 +12736,7 @@
       <c r="AX225" s="2"/>
       <c r="AY225" s="2"/>
     </row>
-    <row r="226" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -12790,7 +12789,7 @@
       <c r="AX226" s="2"/>
       <c r="AY226" s="2"/>
     </row>
-    <row r="227" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -12843,7 +12842,7 @@
       <c r="AX227" s="2"/>
       <c r="AY227" s="2"/>
     </row>
-    <row r="228" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -12896,7 +12895,7 @@
       <c r="AX228" s="2"/>
       <c r="AY228" s="2"/>
     </row>
-    <row r="229" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -12949,7 +12948,7 @@
       <c r="AX229" s="2"/>
       <c r="AY229" s="2"/>
     </row>
-    <row r="230" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -13002,7 +13001,7 @@
       <c r="AX230" s="2"/>
       <c r="AY230" s="2"/>
     </row>
-    <row r="231" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -13055,7 +13054,7 @@
       <c r="AX231" s="2"/>
       <c r="AY231" s="2"/>
     </row>
-    <row r="232" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -13108,7 +13107,7 @@
       <c r="AX232" s="2"/>
       <c r="AY232" s="2"/>
     </row>
-    <row r="233" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -13161,7 +13160,7 @@
       <c r="AX233" s="2"/>
       <c r="AY233" s="2"/>
     </row>
-    <row r="234" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -13214,7 +13213,7 @@
       <c r="AX234" s="2"/>
       <c r="AY234" s="2"/>
     </row>
-    <row r="235" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -13267,7 +13266,7 @@
       <c r="AX235" s="2"/>
       <c r="AY235" s="2"/>
     </row>
-    <row r="236" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -13320,7 +13319,7 @@
       <c r="AX236" s="2"/>
       <c r="AY236" s="2"/>
     </row>
-    <row r="237" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -13373,7 +13372,7 @@
       <c r="AX237" s="2"/>
       <c r="AY237" s="2"/>
     </row>
-    <row r="238" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -13426,7 +13425,7 @@
       <c r="AX238" s="2"/>
       <c r="AY238" s="2"/>
     </row>
-    <row r="239" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -13479,7 +13478,7 @@
       <c r="AX239" s="2"/>
       <c r="AY239" s="2"/>
     </row>
-    <row r="240" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -13532,7 +13531,7 @@
       <c r="AX240" s="2"/>
       <c r="AY240" s="2"/>
     </row>
-    <row r="241" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -13585,7 +13584,7 @@
       <c r="AX241" s="2"/>
       <c r="AY241" s="2"/>
     </row>
-    <row r="242" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -13638,7 +13637,7 @@
       <c r="AX242" s="2"/>
       <c r="AY242" s="2"/>
     </row>
-    <row r="243" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -13691,7 +13690,7 @@
       <c r="AX243" s="2"/>
       <c r="AY243" s="2"/>
     </row>
-    <row r="244" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -13744,7 +13743,7 @@
       <c r="AX244" s="2"/>
       <c r="AY244" s="2"/>
     </row>
-    <row r="245" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -13797,7 +13796,7 @@
       <c r="AX245" s="2"/>
       <c r="AY245" s="2"/>
     </row>
-    <row r="246" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -13850,7 +13849,7 @@
       <c r="AX246" s="2"/>
       <c r="AY246" s="2"/>
     </row>
-    <row r="247" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -13903,7 +13902,7 @@
       <c r="AX247" s="2"/>
       <c r="AY247" s="2"/>
     </row>
-    <row r="248" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -13956,7 +13955,7 @@
       <c r="AX248" s="2"/>
       <c r="AY248" s="2"/>
     </row>
-    <row r="249" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -14009,7 +14008,7 @@
       <c r="AX249" s="2"/>
       <c r="AY249" s="2"/>
     </row>
-    <row r="250" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -14062,7 +14061,7 @@
       <c r="AX250" s="2"/>
       <c r="AY250" s="2"/>
     </row>
-    <row r="251" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -14115,7 +14114,7 @@
       <c r="AX251" s="2"/>
       <c r="AY251" s="2"/>
     </row>
-    <row r="252" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -14168,7 +14167,7 @@
       <c r="AX252" s="2"/>
       <c r="AY252" s="2"/>
     </row>
-    <row r="253" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -14221,7 +14220,7 @@
       <c r="AX253" s="2"/>
       <c r="AY253" s="2"/>
     </row>
-    <row r="254" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -14274,7 +14273,7 @@
       <c r="AX254" s="2"/>
       <c r="AY254" s="2"/>
     </row>
-    <row r="255" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -14327,7 +14326,7 @@
       <c r="AX255" s="2"/>
       <c r="AY255" s="2"/>
     </row>
-    <row r="256" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -14380,7 +14379,7 @@
       <c r="AX256" s="2"/>
       <c r="AY256" s="2"/>
     </row>
-    <row r="257" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -14433,7 +14432,7 @@
       <c r="AX257" s="2"/>
       <c r="AY257" s="2"/>
     </row>
-    <row r="258" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -14486,7 +14485,7 @@
       <c r="AX258" s="2"/>
       <c r="AY258" s="2"/>
     </row>
-    <row r="259" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -14539,7 +14538,7 @@
       <c r="AX259" s="2"/>
       <c r="AY259" s="2"/>
     </row>
-    <row r="260" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -14592,7 +14591,7 @@
       <c r="AX260" s="2"/>
       <c r="AY260" s="2"/>
     </row>
-    <row r="261" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -14645,7 +14644,7 @@
       <c r="AX261" s="2"/>
       <c r="AY261" s="2"/>
     </row>
-    <row r="262" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -14698,7 +14697,7 @@
       <c r="AX262" s="2"/>
       <c r="AY262" s="2"/>
     </row>
-    <row r="263" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -14751,7 +14750,7 @@
       <c r="AX263" s="2"/>
       <c r="AY263" s="2"/>
     </row>
-    <row r="264" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -14804,7 +14803,7 @@
       <c r="AX264" s="2"/>
       <c r="AY264" s="2"/>
     </row>
-    <row r="265" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -14857,7 +14856,7 @@
       <c r="AX265" s="2"/>
       <c r="AY265" s="2"/>
     </row>
-    <row r="266" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -14910,7 +14909,7 @@
       <c r="AX266" s="2"/>
       <c r="AY266" s="2"/>
     </row>
-    <row r="267" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -14963,7 +14962,7 @@
       <c r="AX267" s="2"/>
       <c r="AY267" s="2"/>
     </row>
-    <row r="268" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -15016,7 +15015,7 @@
       <c r="AX268" s="2"/>
       <c r="AY268" s="2"/>
     </row>
-    <row r="269" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -15069,7 +15068,7 @@
       <c r="AX269" s="2"/>
       <c r="AY269" s="2"/>
     </row>
-    <row r="270" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -15122,7 +15121,7 @@
       <c r="AX270" s="2"/>
       <c r="AY270" s="2"/>
     </row>
-    <row r="271" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -15175,7 +15174,7 @@
       <c r="AX271" s="2"/>
       <c r="AY271" s="2"/>
     </row>
-    <row r="272" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -15228,7 +15227,7 @@
       <c r="AX272" s="2"/>
       <c r="AY272" s="2"/>
     </row>
-    <row r="273" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -15281,7 +15280,7 @@
       <c r="AX273" s="2"/>
       <c r="AY273" s="2"/>
     </row>
-    <row r="274" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -15334,7 +15333,7 @@
       <c r="AX274" s="2"/>
       <c r="AY274" s="2"/>
     </row>
-    <row r="275" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -15387,7 +15386,7 @@
       <c r="AX275" s="2"/>
       <c r="AY275" s="2"/>
     </row>
-    <row r="276" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -15440,7 +15439,7 @@
       <c r="AX276" s="2"/>
       <c r="AY276" s="2"/>
     </row>
-    <row r="277" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -15493,7 +15492,7 @@
       <c r="AX277" s="2"/>
       <c r="AY277" s="2"/>
     </row>
-    <row r="278" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -15546,7 +15545,7 @@
       <c r="AX278" s="2"/>
       <c r="AY278" s="2"/>
     </row>
-    <row r="279" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -15599,7 +15598,7 @@
       <c r="AX279" s="2"/>
       <c r="AY279" s="2"/>
     </row>
-    <row r="280" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -15652,7 +15651,7 @@
       <c r="AX280" s="2"/>
       <c r="AY280" s="2"/>
     </row>
-    <row r="281" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -15705,7 +15704,7 @@
       <c r="AX281" s="2"/>
       <c r="AY281" s="2"/>
     </row>
-    <row r="282" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -15758,7 +15757,7 @@
       <c r="AX282" s="2"/>
       <c r="AY282" s="2"/>
     </row>
-    <row r="283" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -15811,7 +15810,7 @@
       <c r="AX283" s="2"/>
       <c r="AY283" s="2"/>
     </row>
-    <row r="284" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -15864,7 +15863,7 @@
       <c r="AX284" s="2"/>
       <c r="AY284" s="2"/>
     </row>
-    <row r="285" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -15917,7 +15916,7 @@
       <c r="AX285" s="2"/>
       <c r="AY285" s="2"/>
     </row>
-    <row r="286" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -15970,7 +15969,7 @@
       <c r="AX286" s="2"/>
       <c r="AY286" s="2"/>
     </row>
-    <row r="287" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -16023,7 +16022,7 @@
       <c r="AX287" s="2"/>
       <c r="AY287" s="2"/>
     </row>
-    <row r="288" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -16076,7 +16075,7 @@
       <c r="AX288" s="2"/>
       <c r="AY288" s="2"/>
     </row>
-    <row r="289" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -16129,7 +16128,7 @@
       <c r="AX289" s="2"/>
       <c r="AY289" s="2"/>
     </row>
-    <row r="290" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -16182,7 +16181,7 @@
       <c r="AX290" s="2"/>
       <c r="AY290" s="2"/>
     </row>
-    <row r="291" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -16235,7 +16234,7 @@
       <c r="AX291" s="2"/>
       <c r="AY291" s="2"/>
     </row>
-    <row r="292" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -16288,7 +16287,7 @@
       <c r="AX292" s="2"/>
       <c r="AY292" s="2"/>
     </row>
-    <row r="293" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -16341,7 +16340,7 @@
       <c r="AX293" s="2"/>
       <c r="AY293" s="2"/>
     </row>
-    <row r="294" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -16394,7 +16393,7 @@
       <c r="AX294" s="2"/>
       <c r="AY294" s="2"/>
     </row>
-    <row r="295" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -16447,7 +16446,7 @@
       <c r="AX295" s="2"/>
       <c r="AY295" s="2"/>
     </row>
-    <row r="296" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -16500,7 +16499,7 @@
       <c r="AX296" s="2"/>
       <c r="AY296" s="2"/>
     </row>
-    <row r="297" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -16553,7 +16552,7 @@
       <c r="AX297" s="2"/>
       <c r="AY297" s="2"/>
     </row>
-    <row r="298" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -16606,7 +16605,7 @@
       <c r="AX298" s="2"/>
       <c r="AY298" s="2"/>
     </row>
-    <row r="299" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -16659,7 +16658,7 @@
       <c r="AX299" s="2"/>
       <c r="AY299" s="2"/>
     </row>
-    <row r="300" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -16712,7 +16711,7 @@
       <c r="AX300" s="2"/>
       <c r="AY300" s="2"/>
     </row>
-    <row r="301" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -16765,7 +16764,7 @@
       <c r="AX301" s="2"/>
       <c r="AY301" s="2"/>
     </row>
-    <row r="302" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -16818,7 +16817,7 @@
       <c r="AX302" s="2"/>
       <c r="AY302" s="2"/>
     </row>
-    <row r="303" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -16871,7 +16870,7 @@
       <c r="AX303" s="2"/>
       <c r="AY303" s="2"/>
     </row>
-    <row r="304" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -16924,7 +16923,7 @@
       <c r="AX304" s="2"/>
       <c r="AY304" s="2"/>
     </row>
-    <row r="305" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -16977,7 +16976,7 @@
       <c r="AX305" s="2"/>
       <c r="AY305" s="2"/>
     </row>
-    <row r="306" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -17030,7 +17029,7 @@
       <c r="AX306" s="2"/>
       <c r="AY306" s="2"/>
     </row>
-    <row r="307" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -17083,7 +17082,7 @@
       <c r="AX307" s="2"/>
       <c r="AY307" s="2"/>
     </row>
-    <row r="308" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -17136,7 +17135,7 @@
       <c r="AX308" s="2"/>
       <c r="AY308" s="2"/>
     </row>
-    <row r="309" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -17189,7 +17188,7 @@
       <c r="AX309" s="2"/>
       <c r="AY309" s="2"/>
     </row>
-    <row r="310" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -17242,7 +17241,7 @@
       <c r="AX310" s="2"/>
       <c r="AY310" s="2"/>
     </row>
-    <row r="311" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -17295,7 +17294,7 @@
       <c r="AX311" s="2"/>
       <c r="AY311" s="2"/>
     </row>
-    <row r="312" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -17348,7 +17347,7 @@
       <c r="AX312" s="2"/>
       <c r="AY312" s="2"/>
     </row>
-    <row r="313" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -17401,7 +17400,7 @@
       <c r="AX313" s="2"/>
       <c r="AY313" s="2"/>
     </row>
-    <row r="314" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -17454,7 +17453,7 @@
       <c r="AX314" s="2"/>
       <c r="AY314" s="2"/>
     </row>
-    <row r="315" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -17507,7 +17506,7 @@
       <c r="AX315" s="2"/>
       <c r="AY315" s="2"/>
     </row>
-    <row r="316" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -17560,7 +17559,7 @@
       <c r="AX316" s="2"/>
       <c r="AY316" s="2"/>
     </row>
-    <row r="317" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -17613,7 +17612,7 @@
       <c r="AX317" s="2"/>
       <c r="AY317" s="2"/>
     </row>
-    <row r="318" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -17666,7 +17665,7 @@
       <c r="AX318" s="2"/>
       <c r="AY318" s="2"/>
     </row>
-    <row r="319" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -17719,7 +17718,7 @@
       <c r="AX319" s="2"/>
       <c r="AY319" s="2"/>
     </row>
-    <row r="320" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -17772,7 +17771,7 @@
       <c r="AX320" s="2"/>
       <c r="AY320" s="2"/>
     </row>
-    <row r="321" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -17825,7 +17824,7 @@
       <c r="AX321" s="2"/>
       <c r="AY321" s="2"/>
     </row>
-    <row r="322" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -17878,7 +17877,7 @@
       <c r="AX322" s="2"/>
       <c r="AY322" s="2"/>
     </row>
-    <row r="323" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -17931,7 +17930,7 @@
       <c r="AX323" s="2"/>
       <c r="AY323" s="2"/>
     </row>
-    <row r="324" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -17984,7 +17983,7 @@
       <c r="AX324" s="2"/>
       <c r="AY324" s="2"/>
     </row>
-    <row r="325" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -18037,7 +18036,7 @@
       <c r="AX325" s="2"/>
       <c r="AY325" s="2"/>
     </row>
-    <row r="326" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -18090,7 +18089,7 @@
       <c r="AX326" s="2"/>
       <c r="AY326" s="2"/>
     </row>
-    <row r="327" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -18143,7 +18142,7 @@
       <c r="AX327" s="2"/>
       <c r="AY327" s="2"/>
     </row>
-    <row r="328" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -18196,7 +18195,7 @@
       <c r="AX328" s="2"/>
       <c r="AY328" s="2"/>
     </row>
-    <row r="329" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -18249,7 +18248,7 @@
       <c r="AX329" s="2"/>
       <c r="AY329" s="2"/>
     </row>
-    <row r="330" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -18302,7 +18301,7 @@
       <c r="AX330" s="2"/>
       <c r="AY330" s="2"/>
     </row>
-    <row r="331" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -18355,7 +18354,7 @@
       <c r="AX331" s="2"/>
       <c r="AY331" s="2"/>
     </row>
-    <row r="332" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -18408,7 +18407,7 @@
       <c r="AX332" s="2"/>
       <c r="AY332" s="2"/>
     </row>
-    <row r="333" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -18461,7 +18460,7 @@
       <c r="AX333" s="2"/>
       <c r="AY333" s="2"/>
     </row>
-    <row r="334" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -18514,7 +18513,7 @@
       <c r="AX334" s="2"/>
       <c r="AY334" s="2"/>
     </row>
-    <row r="335" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -18567,7 +18566,7 @@
       <c r="AX335" s="2"/>
       <c r="AY335" s="2"/>
     </row>
-    <row r="336" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -18620,7 +18619,7 @@
       <c r="AX336" s="2"/>
       <c r="AY336" s="2"/>
     </row>
-    <row r="337" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -18673,7 +18672,7 @@
       <c r="AX337" s="2"/>
       <c r="AY337" s="2"/>
     </row>
-    <row r="338" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -18726,7 +18725,7 @@
       <c r="AX338" s="2"/>
       <c r="AY338" s="2"/>
     </row>
-    <row r="339" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -18779,7 +18778,7 @@
       <c r="AX339" s="2"/>
       <c r="AY339" s="2"/>
     </row>
-    <row r="340" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -18832,7 +18831,7 @@
       <c r="AX340" s="2"/>
       <c r="AY340" s="2"/>
     </row>
-    <row r="341" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -18885,7 +18884,7 @@
       <c r="AX341" s="2"/>
       <c r="AY341" s="2"/>
     </row>
-    <row r="342" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -18938,7 +18937,7 @@
       <c r="AX342" s="2"/>
       <c r="AY342" s="2"/>
     </row>
-    <row r="343" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -18991,7 +18990,7 @@
       <c r="AX343" s="2"/>
       <c r="AY343" s="2"/>
     </row>
-    <row r="344" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -19044,7 +19043,7 @@
       <c r="AX344" s="2"/>
       <c r="AY344" s="2"/>
     </row>
-    <row r="345" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -19097,7 +19096,7 @@
       <c r="AX345" s="2"/>
       <c r="AY345" s="2"/>
     </row>
-    <row r="346" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -19150,7 +19149,7 @@
       <c r="AX346" s="2"/>
       <c r="AY346" s="2"/>
     </row>
-    <row r="347" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -19203,7 +19202,7 @@
       <c r="AX347" s="2"/>
       <c r="AY347" s="2"/>
     </row>
-    <row r="348" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -19256,7 +19255,7 @@
       <c r="AX348" s="2"/>
       <c r="AY348" s="2"/>
     </row>
-    <row r="349" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -19309,7 +19308,7 @@
       <c r="AX349" s="2"/>
       <c r="AY349" s="2"/>
     </row>
-    <row r="350" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -19362,7 +19361,7 @@
       <c r="AX350" s="2"/>
       <c r="AY350" s="2"/>
     </row>
-    <row r="351" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -19415,7 +19414,7 @@
       <c r="AX351" s="2"/>
       <c r="AY351" s="2"/>
     </row>
-    <row r="352" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -19468,7 +19467,7 @@
       <c r="AX352" s="2"/>
       <c r="AY352" s="2"/>
     </row>
-    <row r="353" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -19521,7 +19520,7 @@
       <c r="AX353" s="2"/>
       <c r="AY353" s="2"/>
     </row>
-    <row r="354" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -19574,7 +19573,7 @@
       <c r="AX354" s="2"/>
       <c r="AY354" s="2"/>
     </row>
-    <row r="355" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -19627,7 +19626,7 @@
       <c r="AX355" s="2"/>
       <c r="AY355" s="2"/>
     </row>
-    <row r="356" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -19680,7 +19679,7 @@
       <c r="AX356" s="2"/>
       <c r="AY356" s="2"/>
     </row>
-    <row r="357" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -19733,7 +19732,7 @@
       <c r="AX357" s="2"/>
       <c r="AY357" s="2"/>
     </row>
-    <row r="358" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -19786,7 +19785,7 @@
       <c r="AX358" s="2"/>
       <c r="AY358" s="2"/>
     </row>
-    <row r="359" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -19839,7 +19838,7 @@
       <c r="AX359" s="2"/>
       <c r="AY359" s="2"/>
     </row>
-    <row r="360" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -19892,7 +19891,7 @@
       <c r="AX360" s="2"/>
       <c r="AY360" s="2"/>
     </row>
-    <row r="361" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -19945,7 +19944,7 @@
       <c r="AX361" s="2"/>
       <c r="AY361" s="2"/>
     </row>
-    <row r="362" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -19998,7 +19997,7 @@
       <c r="AX362" s="2"/>
       <c r="AY362" s="2"/>
     </row>
-    <row r="363" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -20051,7 +20050,7 @@
       <c r="AX363" s="2"/>
       <c r="AY363" s="2"/>
     </row>
-    <row r="364" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -20104,7 +20103,7 @@
       <c r="AX364" s="2"/>
       <c r="AY364" s="2"/>
     </row>
-    <row r="365" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -20157,7 +20156,7 @@
       <c r="AX365" s="2"/>
       <c r="AY365" s="2"/>
     </row>
-    <row r="366" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -20210,7 +20209,7 @@
       <c r="AX366" s="2"/>
       <c r="AY366" s="2"/>
     </row>
-    <row r="367" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -20263,7 +20262,7 @@
       <c r="AX367" s="2"/>
       <c r="AY367" s="2"/>
     </row>
-    <row r="368" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -20316,7 +20315,7 @@
       <c r="AX368" s="2"/>
       <c r="AY368" s="2"/>
     </row>
-    <row r="369" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -20369,7 +20368,7 @@
       <c r="AX369" s="2"/>
       <c r="AY369" s="2"/>
     </row>
-    <row r="370" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -20422,7 +20421,7 @@
       <c r="AX370" s="2"/>
       <c r="AY370" s="2"/>
     </row>
-    <row r="371" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -20475,7 +20474,7 @@
       <c r="AX371" s="2"/>
       <c r="AY371" s="2"/>
     </row>
-    <row r="372" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -20528,7 +20527,7 @@
       <c r="AX372" s="2"/>
       <c r="AY372" s="2"/>
     </row>
-    <row r="373" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -20581,7 +20580,7 @@
       <c r="AX373" s="2"/>
       <c r="AY373" s="2"/>
     </row>
-    <row r="374" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -20634,7 +20633,7 @@
       <c r="AX374" s="2"/>
       <c r="AY374" s="2"/>
     </row>
-    <row r="375" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -20687,7 +20686,7 @@
       <c r="AX375" s="2"/>
       <c r="AY375" s="2"/>
     </row>
-    <row r="376" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -20740,7 +20739,7 @@
       <c r="AX376" s="2"/>
       <c r="AY376" s="2"/>
     </row>
-    <row r="377" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -20793,7 +20792,7 @@
       <c r="AX377" s="2"/>
       <c r="AY377" s="2"/>
     </row>
-    <row r="378" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -20846,7 +20845,7 @@
       <c r="AX378" s="2"/>
       <c r="AY378" s="2"/>
     </row>
-    <row r="379" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -20899,7 +20898,7 @@
       <c r="AX379" s="2"/>
       <c r="AY379" s="2"/>
     </row>
-    <row r="380" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -20952,7 +20951,7 @@
       <c r="AX380" s="2"/>
       <c r="AY380" s="2"/>
     </row>
-    <row r="381" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -21005,7 +21004,7 @@
       <c r="AX381" s="2"/>
       <c r="AY381" s="2"/>
     </row>
-    <row r="382" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -21058,7 +21057,7 @@
       <c r="AX382" s="2"/>
       <c r="AY382" s="2"/>
     </row>
-    <row r="383" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -21111,7 +21110,7 @@
       <c r="AX383" s="2"/>
       <c r="AY383" s="2"/>
     </row>
-    <row r="384" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -21164,7 +21163,7 @@
       <c r="AX384" s="2"/>
       <c r="AY384" s="2"/>
     </row>
-    <row r="385" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -21217,7 +21216,7 @@
       <c r="AX385" s="2"/>
       <c r="AY385" s="2"/>
     </row>
-    <row r="386" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -21270,7 +21269,7 @@
       <c r="AX386" s="2"/>
       <c r="AY386" s="2"/>
     </row>
-    <row r="387" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -21323,7 +21322,7 @@
       <c r="AX387" s="2"/>
       <c r="AY387" s="2"/>
     </row>
-    <row r="388" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -21376,7 +21375,7 @@
       <c r="AX388" s="2"/>
       <c r="AY388" s="2"/>
     </row>
-    <row r="389" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -21429,7 +21428,7 @@
       <c r="AX389" s="2"/>
       <c r="AY389" s="2"/>
     </row>
-    <row r="390" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -21482,7 +21481,7 @@
       <c r="AX390" s="2"/>
       <c r="AY390" s="2"/>
     </row>
-    <row r="391" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -21535,7 +21534,7 @@
       <c r="AX391" s="2"/>
       <c r="AY391" s="2"/>
     </row>
-    <row r="392" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -21588,7 +21587,7 @@
       <c r="AX392" s="2"/>
       <c r="AY392" s="2"/>
     </row>
-    <row r="393" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -21641,7 +21640,7 @@
       <c r="AX393" s="2"/>
       <c r="AY393" s="2"/>
     </row>
-    <row r="394" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -21694,7 +21693,7 @@
       <c r="AX394" s="2"/>
       <c r="AY394" s="2"/>
     </row>
-    <row r="395" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -21747,7 +21746,7 @@
       <c r="AX395" s="2"/>
       <c r="AY395" s="2"/>
     </row>
-    <row r="396" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -21800,7 +21799,7 @@
       <c r="AX396" s="2"/>
       <c r="AY396" s="2"/>
     </row>
-    <row r="397" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -21853,7 +21852,7 @@
       <c r="AX397" s="2"/>
       <c r="AY397" s="2"/>
     </row>
-    <row r="398" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -21906,7 +21905,7 @@
       <c r="AX398" s="2"/>
       <c r="AY398" s="2"/>
     </row>
-    <row r="399" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -21959,7 +21958,7 @@
       <c r="AX399" s="2"/>
       <c r="AY399" s="2"/>
     </row>
-    <row r="400" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -22012,7 +22011,7 @@
       <c r="AX400" s="2"/>
       <c r="AY400" s="2"/>
     </row>
-    <row r="401" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -22065,7 +22064,7 @@
       <c r="AX401" s="2"/>
       <c r="AY401" s="2"/>
     </row>
-    <row r="402" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -22118,7 +22117,7 @@
       <c r="AX402" s="2"/>
       <c r="AY402" s="2"/>
     </row>
-    <row r="403" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -22171,7 +22170,7 @@
       <c r="AX403" s="2"/>
       <c r="AY403" s="2"/>
     </row>
-    <row r="404" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -22224,7 +22223,7 @@
       <c r="AX404" s="2"/>
       <c r="AY404" s="2"/>
     </row>
-    <row r="405" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -22277,7 +22276,7 @@
       <c r="AX405" s="2"/>
       <c r="AY405" s="2"/>
     </row>
-    <row r="406" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -22330,7 +22329,7 @@
       <c r="AX406" s="2"/>
       <c r="AY406" s="2"/>
     </row>
-    <row r="407" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -22383,7 +22382,7 @@
       <c r="AX407" s="2"/>
       <c r="AY407" s="2"/>
     </row>
-    <row r="408" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -22436,7 +22435,7 @@
       <c r="AX408" s="2"/>
       <c r="AY408" s="2"/>
     </row>
-    <row r="409" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -22489,7 +22488,7 @@
       <c r="AX409" s="2"/>
       <c r="AY409" s="2"/>
     </row>
-    <row r="410" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -22542,7 +22541,7 @@
       <c r="AX410" s="2"/>
       <c r="AY410" s="2"/>
     </row>
-    <row r="411" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -22595,7 +22594,7 @@
       <c r="AX411" s="2"/>
       <c r="AY411" s="2"/>
     </row>
-    <row r="412" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -22648,7 +22647,7 @@
       <c r="AX412" s="2"/>
       <c r="AY412" s="2"/>
     </row>
-    <row r="413" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -22701,7 +22700,7 @@
       <c r="AX413" s="2"/>
       <c r="AY413" s="2"/>
     </row>
-    <row r="414" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -22754,7 +22753,7 @@
       <c r="AX414" s="2"/>
       <c r="AY414" s="2"/>
     </row>
-    <row r="415" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -22807,7 +22806,7 @@
       <c r="AX415" s="2"/>
       <c r="AY415" s="2"/>
     </row>
-    <row r="416" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -22860,7 +22859,7 @@
       <c r="AX416" s="2"/>
       <c r="AY416" s="2"/>
     </row>
-    <row r="417" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -22913,7 +22912,7 @@
       <c r="AX417" s="2"/>
       <c r="AY417" s="2"/>
     </row>
-    <row r="418" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -22966,7 +22965,7 @@
       <c r="AX418" s="2"/>
       <c r="AY418" s="2"/>
     </row>
-    <row r="419" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -23019,7 +23018,7 @@
       <c r="AX419" s="2"/>
       <c r="AY419" s="2"/>
     </row>
-    <row r="420" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -23072,7 +23071,7 @@
       <c r="AX420" s="2"/>
       <c r="AY420" s="2"/>
     </row>
-    <row r="421" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -23125,7 +23124,7 @@
       <c r="AX421" s="2"/>
       <c r="AY421" s="2"/>
     </row>
-    <row r="422" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -23178,7 +23177,7 @@
       <c r="AX422" s="2"/>
       <c r="AY422" s="2"/>
     </row>
-    <row r="423" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -23231,7 +23230,7 @@
       <c r="AX423" s="2"/>
       <c r="AY423" s="2"/>
     </row>
-    <row r="424" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -23284,7 +23283,7 @@
       <c r="AX424" s="2"/>
       <c r="AY424" s="2"/>
     </row>
-    <row r="425" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -23337,7 +23336,7 @@
       <c r="AX425" s="2"/>
       <c r="AY425" s="2"/>
     </row>
-    <row r="426" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -23390,7 +23389,7 @@
       <c r="AX426" s="2"/>
       <c r="AY426" s="2"/>
     </row>
-    <row r="427" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -23443,7 +23442,7 @@
       <c r="AX427" s="2"/>
       <c r="AY427" s="2"/>
     </row>
-    <row r="428" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -23496,7 +23495,7 @@
       <c r="AX428" s="2"/>
       <c r="AY428" s="2"/>
     </row>
-    <row r="429" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -23549,7 +23548,7 @@
       <c r="AX429" s="2"/>
       <c r="AY429" s="2"/>
     </row>
-    <row r="430" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -23602,7 +23601,7 @@
       <c r="AX430" s="2"/>
       <c r="AY430" s="2"/>
     </row>
-    <row r="431" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -23655,7 +23654,7 @@
       <c r="AX431" s="2"/>
       <c r="AY431" s="2"/>
     </row>
-    <row r="432" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -23708,7 +23707,7 @@
       <c r="AX432" s="2"/>
       <c r="AY432" s="2"/>
     </row>
-    <row r="433" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -23761,7 +23760,7 @@
       <c r="AX433" s="2"/>
       <c r="AY433" s="2"/>
     </row>
-    <row r="434" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -23814,7 +23813,7 @@
       <c r="AX434" s="2"/>
       <c r="AY434" s="2"/>
     </row>
-    <row r="435" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -23867,7 +23866,7 @@
       <c r="AX435" s="2"/>
       <c r="AY435" s="2"/>
     </row>
-    <row r="436" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -23920,7 +23919,7 @@
       <c r="AX436" s="2"/>
       <c r="AY436" s="2"/>
     </row>
-    <row r="437" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -23973,7 +23972,7 @@
       <c r="AX437" s="2"/>
       <c r="AY437" s="2"/>
     </row>
-    <row r="438" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -24026,7 +24025,7 @@
       <c r="AX438" s="2"/>
       <c r="AY438" s="2"/>
     </row>
-    <row r="439" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -24079,7 +24078,7 @@
       <c r="AX439" s="2"/>
       <c r="AY439" s="2"/>
     </row>
-    <row r="440" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -24132,7 +24131,7 @@
       <c r="AX440" s="2"/>
       <c r="AY440" s="2"/>
     </row>
-    <row r="441" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -24185,7 +24184,7 @@
       <c r="AX441" s="2"/>
       <c r="AY441" s="2"/>
     </row>
-    <row r="442" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -24238,7 +24237,7 @@
       <c r="AX442" s="2"/>
       <c r="AY442" s="2"/>
     </row>
-    <row r="443" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -24291,7 +24290,7 @@
       <c r="AX443" s="2"/>
       <c r="AY443" s="2"/>
     </row>
-    <row r="444" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -24344,7 +24343,7 @@
       <c r="AX444" s="2"/>
       <c r="AY444" s="2"/>
     </row>
-    <row r="445" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -24397,7 +24396,7 @@
       <c r="AX445" s="2"/>
       <c r="AY445" s="2"/>
     </row>
-    <row r="446" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -24450,7 +24449,7 @@
       <c r="AX446" s="2"/>
       <c r="AY446" s="2"/>
     </row>
-    <row r="447" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -24503,7 +24502,7 @@
       <c r="AX447" s="2"/>
       <c r="AY447" s="2"/>
     </row>
-    <row r="448" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -24556,7 +24555,7 @@
       <c r="AX448" s="2"/>
       <c r="AY448" s="2"/>
     </row>
-    <row r="449" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -24609,7 +24608,7 @@
       <c r="AX449" s="2"/>
       <c r="AY449" s="2"/>
     </row>
-    <row r="450" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -24662,7 +24661,7 @@
       <c r="AX450" s="2"/>
       <c r="AY450" s="2"/>
     </row>
-    <row r="451" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -24715,7 +24714,7 @@
       <c r="AX451" s="2"/>
       <c r="AY451" s="2"/>
     </row>
-    <row r="452" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -24768,7 +24767,7 @@
       <c r="AX452" s="2"/>
       <c r="AY452" s="2"/>
     </row>
-    <row r="453" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -24821,7 +24820,7 @@
       <c r="AX453" s="2"/>
       <c r="AY453" s="2"/>
     </row>
-    <row r="454" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -24874,7 +24873,7 @@
       <c r="AX454" s="2"/>
       <c r="AY454" s="2"/>
     </row>
-    <row r="455" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -24927,7 +24926,7 @@
       <c r="AX455" s="2"/>
       <c r="AY455" s="2"/>
     </row>
-    <row r="456" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -24980,7 +24979,7 @@
       <c r="AX456" s="2"/>
       <c r="AY456" s="2"/>
     </row>
-    <row r="457" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -25033,7 +25032,7 @@
       <c r="AX457" s="2"/>
       <c r="AY457" s="2"/>
     </row>
-    <row r="458" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -25086,7 +25085,7 @@
       <c r="AX458" s="2"/>
       <c r="AY458" s="2"/>
     </row>
-    <row r="459" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -25139,7 +25138,7 @@
       <c r="AX459" s="2"/>
       <c r="AY459" s="2"/>
     </row>
-    <row r="460" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -25192,7 +25191,7 @@
       <c r="AX460" s="2"/>
       <c r="AY460" s="2"/>
     </row>
-    <row r="461" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -25245,7 +25244,7 @@
       <c r="AX461" s="2"/>
       <c r="AY461" s="2"/>
     </row>
-    <row r="462" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -25298,7 +25297,7 @@
       <c r="AX462" s="2"/>
       <c r="AY462" s="2"/>
     </row>
-    <row r="463" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -25351,7 +25350,7 @@
       <c r="AX463" s="2"/>
       <c r="AY463" s="2"/>
     </row>
-    <row r="464" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -25404,7 +25403,7 @@
       <c r="AX464" s="2"/>
       <c r="AY464" s="2"/>
     </row>
-    <row r="465" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -25457,7 +25456,7 @@
       <c r="AX465" s="2"/>
       <c r="AY465" s="2"/>
     </row>
-    <row r="466" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -25510,7 +25509,7 @@
       <c r="AX466" s="2"/>
       <c r="AY466" s="2"/>
     </row>
-    <row r="467" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -25563,7 +25562,7 @@
       <c r="AX467" s="2"/>
       <c r="AY467" s="2"/>
     </row>
-    <row r="468" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -25616,7 +25615,7 @@
       <c r="AX468" s="2"/>
       <c r="AY468" s="2"/>
     </row>
-    <row r="469" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -25669,7 +25668,7 @@
       <c r="AX469" s="2"/>
       <c r="AY469" s="2"/>
     </row>
-    <row r="470" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -25722,7 +25721,7 @@
       <c r="AX470" s="2"/>
       <c r="AY470" s="2"/>
     </row>
-    <row r="471" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -25775,7 +25774,7 @@
       <c r="AX471" s="2"/>
       <c r="AY471" s="2"/>
     </row>
-    <row r="472" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -25828,7 +25827,7 @@
       <c r="AX472" s="2"/>
       <c r="AY472" s="2"/>
     </row>
-    <row r="473" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -25881,7 +25880,7 @@
       <c r="AX473" s="2"/>
       <c r="AY473" s="2"/>
     </row>
-    <row r="474" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -25934,7 +25933,7 @@
       <c r="AX474" s="2"/>
       <c r="AY474" s="2"/>
     </row>
-    <row r="475" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -25987,7 +25986,7 @@
       <c r="AX475" s="2"/>
       <c r="AY475" s="2"/>
     </row>
-    <row r="476" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -26040,7 +26039,7 @@
       <c r="AX476" s="2"/>
       <c r="AY476" s="2"/>
     </row>
-    <row r="477" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -26093,7 +26092,7 @@
       <c r="AX477" s="2"/>
       <c r="AY477" s="2"/>
     </row>
-    <row r="478" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -26146,7 +26145,7 @@
       <c r="AX478" s="2"/>
       <c r="AY478" s="2"/>
     </row>
-    <row r="479" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -26199,7 +26198,7 @@
       <c r="AX479" s="2"/>
       <c r="AY479" s="2"/>
     </row>
-    <row r="480" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -26252,7 +26251,7 @@
       <c r="AX480" s="2"/>
       <c r="AY480" s="2"/>
     </row>
-    <row r="481" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -26305,7 +26304,7 @@
       <c r="AX481" s="2"/>
       <c r="AY481" s="2"/>
     </row>
-    <row r="482" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -26358,7 +26357,7 @@
       <c r="AX482" s="2"/>
       <c r="AY482" s="2"/>
     </row>
-    <row r="483" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -26411,7 +26410,7 @@
       <c r="AX483" s="2"/>
       <c r="AY483" s="2"/>
     </row>
-    <row r="484" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -26464,7 +26463,7 @@
       <c r="AX484" s="2"/>
       <c r="AY484" s="2"/>
     </row>
-    <row r="485" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -26517,7 +26516,7 @@
       <c r="AX485" s="2"/>
       <c r="AY485" s="2"/>
     </row>
-    <row r="486" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -26570,7 +26569,7 @@
       <c r="AX486" s="2"/>
       <c r="AY486" s="2"/>
     </row>
-    <row r="487" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -26623,7 +26622,7 @@
       <c r="AX487" s="2"/>
       <c r="AY487" s="2"/>
     </row>
-    <row r="488" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -26676,7 +26675,7 @@
       <c r="AX488" s="2"/>
       <c r="AY488" s="2"/>
     </row>
-    <row r="489" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -26729,7 +26728,7 @@
       <c r="AX489" s="2"/>
       <c r="AY489" s="2"/>
     </row>
-    <row r="490" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -26782,7 +26781,7 @@
       <c r="AX490" s="2"/>
       <c r="AY490" s="2"/>
     </row>
-    <row r="491" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -26835,7 +26834,7 @@
       <c r="AX491" s="2"/>
       <c r="AY491" s="2"/>
     </row>
-    <row r="492" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -26888,7 +26887,7 @@
       <c r="AX492" s="2"/>
       <c r="AY492" s="2"/>
     </row>
-    <row r="493" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -26941,7 +26940,7 @@
       <c r="AX493" s="2"/>
       <c r="AY493" s="2"/>
     </row>
-    <row r="494" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -26994,7 +26993,7 @@
       <c r="AX494" s="2"/>
       <c r="AY494" s="2"/>
     </row>
-    <row r="495" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -27047,7 +27046,7 @@
       <c r="AX495" s="2"/>
       <c r="AY495" s="2"/>
     </row>
-    <row r="496" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -27100,7 +27099,7 @@
       <c r="AX496" s="2"/>
       <c r="AY496" s="2"/>
     </row>
-    <row r="497" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -27153,7 +27152,7 @@
       <c r="AX497" s="2"/>
       <c r="AY497" s="2"/>
     </row>
-    <row r="498" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -27206,7 +27205,7 @@
       <c r="AX498" s="2"/>
       <c r="AY498" s="2"/>
     </row>
-    <row r="499" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -27259,7 +27258,7 @@
       <c r="AX499" s="2"/>
       <c r="AY499" s="2"/>
     </row>
-    <row r="500" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -27312,7 +27311,7 @@
       <c r="AX500" s="2"/>
       <c r="AY500" s="2"/>
     </row>
-    <row r="501" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -27365,7 +27364,7 @@
       <c r="AX501" s="2"/>
       <c r="AY501" s="2"/>
     </row>
-    <row r="502" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -27418,7 +27417,7 @@
       <c r="AX502" s="2"/>
       <c r="AY502" s="2"/>
     </row>
-    <row r="503" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -27471,7 +27470,7 @@
       <c r="AX503" s="2"/>
       <c r="AY503" s="2"/>
     </row>
-    <row r="504" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -27524,7 +27523,7 @@
       <c r="AX504" s="2"/>
       <c r="AY504" s="2"/>
     </row>
-    <row r="505" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -27577,7 +27576,7 @@
       <c r="AX505" s="2"/>
       <c r="AY505" s="2"/>
     </row>
-    <row r="506" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -27630,7 +27629,7 @@
       <c r="AX506" s="2"/>
       <c r="AY506" s="2"/>
     </row>
-    <row r="507" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -27683,7 +27682,7 @@
       <c r="AX507" s="2"/>
       <c r="AY507" s="2"/>
     </row>
-    <row r="508" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -27736,7 +27735,7 @@
       <c r="AX508" s="2"/>
       <c r="AY508" s="2"/>
     </row>
-    <row r="509" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -27789,7 +27788,7 @@
       <c r="AX509" s="2"/>
       <c r="AY509" s="2"/>
     </row>
-    <row r="510" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -27842,7 +27841,7 @@
       <c r="AX510" s="2"/>
       <c r="AY510" s="2"/>
     </row>
-    <row r="511" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -27895,7 +27894,7 @@
       <c r="AX511" s="2"/>
       <c r="AY511" s="2"/>
     </row>
-    <row r="512" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -27948,7 +27947,7 @@
       <c r="AX512" s="2"/>
       <c r="AY512" s="2"/>
     </row>
-    <row r="513" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -28001,7 +28000,7 @@
       <c r="AX513" s="2"/>
       <c r="AY513" s="2"/>
     </row>
-    <row r="514" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -28054,7 +28053,7 @@
       <c r="AX514" s="2"/>
       <c r="AY514" s="2"/>
     </row>
-    <row r="515" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -28107,7 +28106,7 @@
       <c r="AX515" s="2"/>
       <c r="AY515" s="2"/>
     </row>
-    <row r="516" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -28160,7 +28159,7 @@
       <c r="AX516" s="2"/>
       <c r="AY516" s="2"/>
     </row>
-    <row r="517" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -28213,7 +28212,7 @@
       <c r="AX517" s="2"/>
       <c r="AY517" s="2"/>
     </row>
-    <row r="518" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -28266,7 +28265,7 @@
       <c r="AX518" s="2"/>
       <c r="AY518" s="2"/>
     </row>
-    <row r="519" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -28319,7 +28318,7 @@
       <c r="AX519" s="2"/>
       <c r="AY519" s="2"/>
     </row>
-    <row r="520" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -28372,7 +28371,7 @@
       <c r="AX520" s="2"/>
       <c r="AY520" s="2"/>
     </row>
-    <row r="521" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -28425,7 +28424,7 @@
       <c r="AX521" s="2"/>
       <c r="AY521" s="2"/>
     </row>
-    <row r="522" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -28478,7 +28477,7 @@
       <c r="AX522" s="2"/>
       <c r="AY522" s="2"/>
     </row>
-    <row r="523" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -28531,7 +28530,7 @@
       <c r="AX523" s="2"/>
       <c r="AY523" s="2"/>
     </row>
-    <row r="524" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -28584,7 +28583,7 @@
       <c r="AX524" s="2"/>
       <c r="AY524" s="2"/>
     </row>
-    <row r="525" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -28637,7 +28636,7 @@
       <c r="AX525" s="2"/>
       <c r="AY525" s="2"/>
     </row>
-    <row r="526" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -28690,7 +28689,7 @@
       <c r="AX526" s="2"/>
       <c r="AY526" s="2"/>
     </row>
-    <row r="527" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -28743,7 +28742,7 @@
       <c r="AX527" s="2"/>
       <c r="AY527" s="2"/>
     </row>
-    <row r="528" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -28796,7 +28795,7 @@
       <c r="AX528" s="2"/>
       <c r="AY528" s="2"/>
     </row>
-    <row r="529" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -28849,7 +28848,7 @@
       <c r="AX529" s="2"/>
       <c r="AY529" s="2"/>
     </row>
-    <row r="530" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -28902,7 +28901,7 @@
       <c r="AX530" s="2"/>
       <c r="AY530" s="2"/>
     </row>
-    <row r="531" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -28955,7 +28954,7 @@
       <c r="AX531" s="2"/>
       <c r="AY531" s="2"/>
     </row>
-    <row r="532" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -29008,7 +29007,7 @@
       <c r="AX532" s="2"/>
       <c r="AY532" s="2"/>
     </row>
-    <row r="533" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -29061,7 +29060,7 @@
       <c r="AX533" s="2"/>
       <c r="AY533" s="2"/>
     </row>
-    <row r="534" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -29114,7 +29113,7 @@
       <c r="AX534" s="2"/>
       <c r="AY534" s="2"/>
     </row>
-    <row r="535" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -29167,7 +29166,7 @@
       <c r="AX535" s="2"/>
       <c r="AY535" s="2"/>
     </row>
-    <row r="536" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -29220,7 +29219,7 @@
       <c r="AX536" s="2"/>
       <c r="AY536" s="2"/>
     </row>
-    <row r="537" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -29273,7 +29272,7 @@
       <c r="AX537" s="2"/>
       <c r="AY537" s="2"/>
     </row>
-    <row r="538" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -29326,7 +29325,7 @@
       <c r="AX538" s="2"/>
       <c r="AY538" s="2"/>
     </row>
-    <row r="539" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -29379,7 +29378,7 @@
       <c r="AX539" s="2"/>
       <c r="AY539" s="2"/>
     </row>
-    <row r="540" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -29432,7 +29431,7 @@
       <c r="AX540" s="2"/>
       <c r="AY540" s="2"/>
     </row>
-    <row r="541" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -29485,7 +29484,7 @@
       <c r="AX541" s="2"/>
       <c r="AY541" s="2"/>
     </row>
-    <row r="542" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -29538,7 +29537,7 @@
       <c r="AX542" s="2"/>
       <c r="AY542" s="2"/>
     </row>
-    <row r="543" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -29591,7 +29590,7 @@
       <c r="AX543" s="2"/>
       <c r="AY543" s="2"/>
     </row>
-    <row r="544" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -29644,7 +29643,7 @@
       <c r="AX544" s="2"/>
       <c r="AY544" s="2"/>
     </row>
-    <row r="545" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -29697,7 +29696,7 @@
       <c r="AX545" s="2"/>
       <c r="AY545" s="2"/>
     </row>
-    <row r="546" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -29750,7 +29749,7 @@
       <c r="AX546" s="2"/>
       <c r="AY546" s="2"/>
     </row>
-    <row r="547" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -29803,7 +29802,7 @@
       <c r="AX547" s="2"/>
       <c r="AY547" s="2"/>
     </row>
-    <row r="548" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -29856,7 +29855,7 @@
       <c r="AX548" s="2"/>
       <c r="AY548" s="2"/>
     </row>
-    <row r="549" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -29909,7 +29908,7 @@
       <c r="AX549" s="2"/>
       <c r="AY549" s="2"/>
     </row>
-    <row r="550" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -29962,7 +29961,7 @@
       <c r="AX550" s="2"/>
       <c r="AY550" s="2"/>
     </row>
-    <row r="551" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -30015,7 +30014,7 @@
       <c r="AX551" s="2"/>
       <c r="AY551" s="2"/>
     </row>
-    <row r="552" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -30068,7 +30067,7 @@
       <c r="AX552" s="2"/>
       <c r="AY552" s="2"/>
     </row>
-    <row r="553" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -30121,7 +30120,7 @@
       <c r="AX553" s="2"/>
       <c r="AY553" s="2"/>
     </row>
-    <row r="554" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -30174,7 +30173,7 @@
       <c r="AX554" s="2"/>
       <c r="AY554" s="2"/>
     </row>
-    <row r="555" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -30227,7 +30226,7 @@
       <c r="AX555" s="2"/>
       <c r="AY555" s="2"/>
     </row>
-    <row r="556" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -30280,7 +30279,7 @@
       <c r="AX556" s="2"/>
       <c r="AY556" s="2"/>
     </row>
-    <row r="557" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -30333,7 +30332,7 @@
       <c r="AX557" s="2"/>
       <c r="AY557" s="2"/>
     </row>
-    <row r="558" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -30386,7 +30385,7 @@
       <c r="AX558" s="2"/>
       <c r="AY558" s="2"/>
     </row>
-    <row r="559" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -30439,7 +30438,7 @@
       <c r="AX559" s="2"/>
       <c r="AY559" s="2"/>
     </row>
-    <row r="560" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -30492,7 +30491,7 @@
       <c r="AX560" s="2"/>
       <c r="AY560" s="2"/>
     </row>
-    <row r="561" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -30545,7 +30544,7 @@
       <c r="AX561" s="2"/>
       <c r="AY561" s="2"/>
     </row>
-    <row r="562" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -30598,7 +30597,7 @@
       <c r="AX562" s="2"/>
       <c r="AY562" s="2"/>
     </row>
-    <row r="563" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -30651,7 +30650,7 @@
       <c r="AX563" s="2"/>
       <c r="AY563" s="2"/>
     </row>
-    <row r="564" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -30704,7 +30703,7 @@
       <c r="AX564" s="2"/>
       <c r="AY564" s="2"/>
     </row>
-    <row r="565" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -30757,7 +30756,7 @@
       <c r="AX565" s="2"/>
       <c r="AY565" s="2"/>
     </row>
-    <row r="566" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -30810,7 +30809,7 @@
       <c r="AX566" s="2"/>
       <c r="AY566" s="2"/>
     </row>
-    <row r="567" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -30863,7 +30862,7 @@
       <c r="AX567" s="2"/>
       <c r="AY567" s="2"/>
     </row>
-    <row r="568" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -30916,7 +30915,7 @@
       <c r="AX568" s="2"/>
       <c r="AY568" s="2"/>
     </row>
-    <row r="569" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -30969,7 +30968,7 @@
       <c r="AX569" s="2"/>
       <c r="AY569" s="2"/>
     </row>
-    <row r="570" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -31022,7 +31021,7 @@
       <c r="AX570" s="2"/>
       <c r="AY570" s="2"/>
     </row>
-    <row r="571" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -31075,7 +31074,7 @@
       <c r="AX571" s="2"/>
       <c r="AY571" s="2"/>
     </row>
-    <row r="572" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -31128,7 +31127,7 @@
       <c r="AX572" s="2"/>
       <c r="AY572" s="2"/>
     </row>
-    <row r="573" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -31181,7 +31180,7 @@
       <c r="AX573" s="2"/>
       <c r="AY573" s="2"/>
     </row>
-    <row r="574" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -31234,7 +31233,7 @@
       <c r="AX574" s="2"/>
       <c r="AY574" s="2"/>
     </row>
-    <row r="575" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -31287,7 +31286,7 @@
       <c r="AX575" s="2"/>
       <c r="AY575" s="2"/>
     </row>
-    <row r="576" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -31340,7 +31339,7 @@
       <c r="AX576" s="2"/>
       <c r="AY576" s="2"/>
     </row>
-    <row r="577" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -31393,7 +31392,7 @@
       <c r="AX577" s="2"/>
       <c r="AY577" s="2"/>
     </row>
-    <row r="578" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -31446,7 +31445,7 @@
       <c r="AX578" s="2"/>
       <c r="AY578" s="2"/>
     </row>
-    <row r="579" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -31499,7 +31498,7 @@
       <c r="AX579" s="2"/>
       <c r="AY579" s="2"/>
     </row>
-    <row r="580" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -31552,7 +31551,7 @@
       <c r="AX580" s="2"/>
       <c r="AY580" s="2"/>
     </row>
-    <row r="581" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -31605,7 +31604,7 @@
       <c r="AX581" s="2"/>
       <c r="AY581" s="2"/>
     </row>
-    <row r="582" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -31658,7 +31657,7 @@
       <c r="AX582" s="2"/>
       <c r="AY582" s="2"/>
     </row>
-    <row r="583" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -31711,7 +31710,7 @@
       <c r="AX583" s="2"/>
       <c r="AY583" s="2"/>
     </row>
-    <row r="584" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -31764,7 +31763,7 @@
       <c r="AX584" s="2"/>
       <c r="AY584" s="2"/>
     </row>
-    <row r="585" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -31817,7 +31816,7 @@
       <c r="AX585" s="2"/>
       <c r="AY585" s="2"/>
     </row>
-    <row r="586" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -31870,7 +31869,7 @@
       <c r="AX586" s="2"/>
       <c r="AY586" s="2"/>
     </row>
-    <row r="587" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -31923,7 +31922,7 @@
       <c r="AX587" s="2"/>
       <c r="AY587" s="2"/>
     </row>
-    <row r="588" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -31976,7 +31975,7 @@
       <c r="AX588" s="2"/>
       <c r="AY588" s="2"/>
     </row>
-    <row r="589" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -32029,7 +32028,7 @@
       <c r="AX589" s="2"/>
       <c r="AY589" s="2"/>
     </row>
-    <row r="590" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -32082,7 +32081,7 @@
       <c r="AX590" s="2"/>
       <c r="AY590" s="2"/>
     </row>
-    <row r="591" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -32135,7 +32134,7 @@
       <c r="AX591" s="2"/>
       <c r="AY591" s="2"/>
     </row>
-    <row r="592" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -32188,7 +32187,7 @@
       <c r="AX592" s="2"/>
       <c r="AY592" s="2"/>
     </row>
-    <row r="593" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -32241,7 +32240,7 @@
       <c r="AX593" s="2"/>
       <c r="AY593" s="2"/>
     </row>
-    <row r="594" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -32294,7 +32293,7 @@
       <c r="AX594" s="2"/>
       <c r="AY594" s="2"/>
     </row>
-    <row r="595" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -32347,7 +32346,7 @@
       <c r="AX595" s="2"/>
       <c r="AY595" s="2"/>
     </row>
-    <row r="596" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -32400,7 +32399,7 @@
       <c r="AX596" s="2"/>
       <c r="AY596" s="2"/>
     </row>
-    <row r="597" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -32453,7 +32452,7 @@
       <c r="AX597" s="2"/>
       <c r="AY597" s="2"/>
     </row>
-    <row r="598" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -32506,7 +32505,7 @@
       <c r="AX598" s="2"/>
       <c r="AY598" s="2"/>
     </row>
-    <row r="599" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -32559,7 +32558,7 @@
       <c r="AX599" s="2"/>
       <c r="AY599" s="2"/>
     </row>
-    <row r="600" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -32612,7 +32611,7 @@
       <c r="AX600" s="2"/>
       <c r="AY600" s="2"/>
     </row>
-    <row r="601" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -32665,7 +32664,7 @@
       <c r="AX601" s="2"/>
       <c r="AY601" s="2"/>
     </row>
-    <row r="602" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -32718,7 +32717,7 @@
       <c r="AX602" s="2"/>
       <c r="AY602" s="2"/>
     </row>
-    <row r="603" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -32771,7 +32770,7 @@
       <c r="AX603" s="2"/>
       <c r="AY603" s="2"/>
     </row>
-    <row r="604" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -32824,7 +32823,7 @@
       <c r="AX604" s="2"/>
       <c r="AY604" s="2"/>
     </row>
-    <row r="605" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -32877,7 +32876,7 @@
       <c r="AX605" s="2"/>
       <c r="AY605" s="2"/>
     </row>
-    <row r="606" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -32930,7 +32929,7 @@
       <c r="AX606" s="2"/>
       <c r="AY606" s="2"/>
     </row>
-    <row r="607" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -32983,7 +32982,7 @@
       <c r="AX607" s="2"/>
       <c r="AY607" s="2"/>
     </row>
-    <row r="608" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -33036,7 +33035,7 @@
       <c r="AX608" s="2"/>
       <c r="AY608" s="2"/>
     </row>
-    <row r="609" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -33089,7 +33088,7 @@
       <c r="AX609" s="2"/>
       <c r="AY609" s="2"/>
     </row>
-    <row r="610" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -33142,7 +33141,7 @@
       <c r="AX610" s="2"/>
       <c r="AY610" s="2"/>
     </row>
-    <row r="611" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -33195,7 +33194,7 @@
       <c r="AX611" s="2"/>
       <c r="AY611" s="2"/>
     </row>
-    <row r="612" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -33248,7 +33247,7 @@
       <c r="AX612" s="2"/>
       <c r="AY612" s="2"/>
     </row>
-    <row r="613" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -33301,7 +33300,7 @@
       <c r="AX613" s="2"/>
       <c r="AY613" s="2"/>
     </row>
-    <row r="614" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -33354,7 +33353,7 @@
       <c r="AX614" s="2"/>
       <c r="AY614" s="2"/>
     </row>
-    <row r="615" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -33407,7 +33406,7 @@
       <c r="AX615" s="2"/>
       <c r="AY615" s="2"/>
     </row>
-    <row r="616" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -33460,7 +33459,7 @@
       <c r="AX616" s="2"/>
       <c r="AY616" s="2"/>
     </row>
-    <row r="617" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -33513,7 +33512,7 @@
       <c r="AX617" s="2"/>
       <c r="AY617" s="2"/>
     </row>
-    <row r="618" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -33566,7 +33565,7 @@
       <c r="AX618" s="2"/>
       <c r="AY618" s="2"/>
     </row>
-    <row r="619" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -33619,7 +33618,7 @@
       <c r="AX619" s="2"/>
       <c r="AY619" s="2"/>
     </row>
-    <row r="620" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -33672,7 +33671,7 @@
       <c r="AX620" s="2"/>
       <c r="AY620" s="2"/>
     </row>
-    <row r="621" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -33725,7 +33724,7 @@
       <c r="AX621" s="2"/>
       <c r="AY621" s="2"/>
     </row>
-    <row r="622" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -33778,7 +33777,7 @@
       <c r="AX622" s="2"/>
       <c r="AY622" s="2"/>
     </row>
-    <row r="623" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -33831,7 +33830,7 @@
       <c r="AX623" s="2"/>
       <c r="AY623" s="2"/>
     </row>
-    <row r="624" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -33884,7 +33883,7 @@
       <c r="AX624" s="2"/>
       <c r="AY624" s="2"/>
     </row>
-    <row r="625" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -33937,7 +33936,7 @@
       <c r="AX625" s="2"/>
       <c r="AY625" s="2"/>
     </row>
-    <row r="626" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -33990,7 +33989,7 @@
       <c r="AX626" s="2"/>
       <c r="AY626" s="2"/>
     </row>
-    <row r="627" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -34043,7 +34042,7 @@
       <c r="AX627" s="2"/>
       <c r="AY627" s="2"/>
     </row>
-    <row r="628" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -34096,7 +34095,7 @@
       <c r="AX628" s="2"/>
       <c r="AY628" s="2"/>
     </row>
-    <row r="629" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -34149,7 +34148,7 @@
       <c r="AX629" s="2"/>
       <c r="AY629" s="2"/>
     </row>
-    <row r="630" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -34202,7 +34201,7 @@
       <c r="AX630" s="2"/>
       <c r="AY630" s="2"/>
     </row>
-    <row r="631" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -34255,7 +34254,7 @@
       <c r="AX631" s="2"/>
       <c r="AY631" s="2"/>
     </row>
-    <row r="632" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -34308,7 +34307,7 @@
       <c r="AX632" s="2"/>
       <c r="AY632" s="2"/>
     </row>
-    <row r="633" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -34361,7 +34360,7 @@
       <c r="AX633" s="2"/>
       <c r="AY633" s="2"/>
     </row>
-    <row r="634" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -34414,7 +34413,7 @@
       <c r="AX634" s="2"/>
       <c r="AY634" s="2"/>
     </row>
-    <row r="635" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -34467,7 +34466,7 @@
       <c r="AX635" s="2"/>
       <c r="AY635" s="2"/>
     </row>
-    <row r="636" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -34520,7 +34519,7 @@
       <c r="AX636" s="2"/>
       <c r="AY636" s="2"/>
     </row>
-    <row r="637" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -34573,7 +34572,7 @@
       <c r="AX637" s="2"/>
       <c r="AY637" s="2"/>
     </row>
-    <row r="638" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -34626,7 +34625,7 @@
       <c r="AX638" s="2"/>
       <c r="AY638" s="2"/>
     </row>
-    <row r="639" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -34679,7 +34678,7 @@
       <c r="AX639" s="2"/>
       <c r="AY639" s="2"/>
     </row>
-    <row r="640" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -34732,7 +34731,7 @@
       <c r="AX640" s="2"/>
       <c r="AY640" s="2"/>
     </row>
-    <row r="641" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -34785,7 +34784,7 @@
       <c r="AX641" s="2"/>
       <c r="AY641" s="2"/>
     </row>
-    <row r="642" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -34838,7 +34837,7 @@
       <c r="AX642" s="2"/>
       <c r="AY642" s="2"/>
     </row>
-    <row r="643" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -34891,7 +34890,7 @@
       <c r="AX643" s="2"/>
       <c r="AY643" s="2"/>
     </row>
-    <row r="644" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -34944,7 +34943,7 @@
       <c r="AX644" s="2"/>
       <c r="AY644" s="2"/>
     </row>
-    <row r="645" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -34997,7 +34996,7 @@
       <c r="AX645" s="2"/>
       <c r="AY645" s="2"/>
     </row>
-    <row r="646" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -35050,7 +35049,7 @@
       <c r="AX646" s="2"/>
       <c r="AY646" s="2"/>
     </row>
-    <row r="647" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -35103,7 +35102,7 @@
       <c r="AX647" s="2"/>
       <c r="AY647" s="2"/>
     </row>
-    <row r="648" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -35156,7 +35155,7 @@
       <c r="AX648" s="2"/>
       <c r="AY648" s="2"/>
     </row>
-    <row r="649" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -35209,7 +35208,7 @@
       <c r="AX649" s="2"/>
       <c r="AY649" s="2"/>
     </row>
-    <row r="650" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -35262,7 +35261,7 @@
       <c r="AX650" s="2"/>
       <c r="AY650" s="2"/>
     </row>
-    <row r="651" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -35315,7 +35314,7 @@
       <c r="AX651" s="2"/>
       <c r="AY651" s="2"/>
     </row>
-    <row r="652" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -35368,7 +35367,7 @@
       <c r="AX652" s="2"/>
       <c r="AY652" s="2"/>
     </row>
-    <row r="653" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -35421,7 +35420,7 @@
       <c r="AX653" s="2"/>
       <c r="AY653" s="2"/>
     </row>
-    <row r="654" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -35474,7 +35473,7 @@
       <c r="AX654" s="2"/>
       <c r="AY654" s="2"/>
     </row>
-    <row r="655" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -35527,7 +35526,7 @@
       <c r="AX655" s="2"/>
       <c r="AY655" s="2"/>
     </row>
-    <row r="656" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -35580,7 +35579,7 @@
       <c r="AX656" s="2"/>
       <c r="AY656" s="2"/>
     </row>
-    <row r="657" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -35633,7 +35632,7 @@
       <c r="AX657" s="2"/>
       <c r="AY657" s="2"/>
     </row>
-    <row r="658" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -35686,7 +35685,7 @@
       <c r="AX658" s="2"/>
       <c r="AY658" s="2"/>
     </row>
-    <row r="659" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -35739,7 +35738,7 @@
       <c r="AX659" s="2"/>
       <c r="AY659" s="2"/>
     </row>
-    <row r="660" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -35792,7 +35791,7 @@
       <c r="AX660" s="2"/>
       <c r="AY660" s="2"/>
     </row>
-    <row r="661" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -35845,7 +35844,7 @@
       <c r="AX661" s="2"/>
       <c r="AY661" s="2"/>
     </row>
-    <row r="662" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -35898,7 +35897,7 @@
       <c r="AX662" s="2"/>
       <c r="AY662" s="2"/>
     </row>
-    <row r="663" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -35951,7 +35950,7 @@
       <c r="AX663" s="2"/>
       <c r="AY663" s="2"/>
     </row>
-    <row r="664" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -36004,7 +36003,7 @@
       <c r="AX664" s="2"/>
       <c r="AY664" s="2"/>
     </row>
-    <row r="665" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -36057,7 +36056,7 @@
       <c r="AX665" s="2"/>
       <c r="AY665" s="2"/>
     </row>
-    <row r="666" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -36110,7 +36109,7 @@
       <c r="AX666" s="2"/>
       <c r="AY666" s="2"/>
     </row>
-    <row r="667" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -36163,7 +36162,7 @@
       <c r="AX667" s="2"/>
       <c r="AY667" s="2"/>
     </row>
-    <row r="668" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -36216,7 +36215,7 @@
       <c r="AX668" s="2"/>
       <c r="AY668" s="2"/>
     </row>
-    <row r="669" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -36269,7 +36268,7 @@
       <c r="AX669" s="2"/>
       <c r="AY669" s="2"/>
     </row>
-    <row r="670" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -36322,7 +36321,7 @@
       <c r="AX670" s="2"/>
       <c r="AY670" s="2"/>
     </row>
-    <row r="671" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -36375,7 +36374,7 @@
       <c r="AX671" s="2"/>
       <c r="AY671" s="2"/>
     </row>
-    <row r="672" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -36428,7 +36427,7 @@
       <c r="AX672" s="2"/>
       <c r="AY672" s="2"/>
     </row>
-    <row r="673" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -36481,7 +36480,7 @@
       <c r="AX673" s="2"/>
       <c r="AY673" s="2"/>
     </row>
-    <row r="674" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -36534,7 +36533,7 @@
       <c r="AX674" s="2"/>
       <c r="AY674" s="2"/>
     </row>
-    <row r="675" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -36587,7 +36586,7 @@
       <c r="AX675" s="2"/>
       <c r="AY675" s="2"/>
     </row>
-    <row r="676" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -36640,7 +36639,7 @@
       <c r="AX676" s="2"/>
       <c r="AY676" s="2"/>
     </row>
-    <row r="677" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -36693,7 +36692,7 @@
       <c r="AX677" s="2"/>
       <c r="AY677" s="2"/>
     </row>
-    <row r="678" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -36746,7 +36745,7 @@
       <c r="AX678" s="2"/>
       <c r="AY678" s="2"/>
     </row>
-    <row r="679" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -36799,7 +36798,7 @@
       <c r="AX679" s="2"/>
       <c r="AY679" s="2"/>
     </row>
-    <row r="680" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -36852,7 +36851,7 @@
       <c r="AX680" s="2"/>
       <c r="AY680" s="2"/>
     </row>
-    <row r="681" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -36905,7 +36904,7 @@
       <c r="AX681" s="2"/>
       <c r="AY681" s="2"/>
     </row>
-    <row r="682" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -36958,7 +36957,7 @@
       <c r="AX682" s="2"/>
       <c r="AY682" s="2"/>
     </row>
-    <row r="683" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -37011,7 +37010,7 @@
       <c r="AX683" s="2"/>
       <c r="AY683" s="2"/>
     </row>
-    <row r="684" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -37064,7 +37063,7 @@
       <c r="AX684" s="2"/>
       <c r="AY684" s="2"/>
     </row>
-    <row r="685" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -37117,7 +37116,7 @@
       <c r="AX685" s="2"/>
       <c r="AY685" s="2"/>
     </row>
-    <row r="686" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -37170,7 +37169,7 @@
       <c r="AX686" s="2"/>
       <c r="AY686" s="2"/>
     </row>
-    <row r="687" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -37223,7 +37222,7 @@
       <c r="AX687" s="2"/>
       <c r="AY687" s="2"/>
     </row>
-    <row r="688" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -37276,7 +37275,7 @@
       <c r="AX688" s="2"/>
       <c r="AY688" s="2"/>
     </row>
-    <row r="689" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -37329,7 +37328,7 @@
       <c r="AX689" s="2"/>
       <c r="AY689" s="2"/>
     </row>
-    <row r="690" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -37382,7 +37381,7 @@
       <c r="AX690" s="2"/>
       <c r="AY690" s="2"/>
     </row>
-    <row r="691" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -37435,7 +37434,7 @@
       <c r="AX691" s="2"/>
       <c r="AY691" s="2"/>
     </row>
-    <row r="692" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -37488,7 +37487,7 @@
       <c r="AX692" s="2"/>
       <c r="AY692" s="2"/>
     </row>
-    <row r="693" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -37541,7 +37540,7 @@
       <c r="AX693" s="2"/>
       <c r="AY693" s="2"/>
     </row>
-    <row r="694" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -37594,7 +37593,7 @@
       <c r="AX694" s="2"/>
       <c r="AY694" s="2"/>
     </row>
-    <row r="695" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -37647,7 +37646,7 @@
       <c r="AX695" s="2"/>
       <c r="AY695" s="2"/>
     </row>
-    <row r="696" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -37700,7 +37699,7 @@
       <c r="AX696" s="2"/>
       <c r="AY696" s="2"/>
     </row>
-    <row r="697" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -37753,7 +37752,7 @@
       <c r="AX697" s="2"/>
       <c r="AY697" s="2"/>
     </row>
-    <row r="698" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -37806,7 +37805,7 @@
       <c r="AX698" s="2"/>
       <c r="AY698" s="2"/>
     </row>
-    <row r="699" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -37859,7 +37858,7 @@
       <c r="AX699" s="2"/>
       <c r="AY699" s="2"/>
     </row>
-    <row r="700" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -37912,7 +37911,7 @@
       <c r="AX700" s="2"/>
       <c r="AY700" s="2"/>
     </row>
-    <row r="701" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -37965,7 +37964,7 @@
       <c r="AX701" s="2"/>
       <c r="AY701" s="2"/>
     </row>
-    <row r="702" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -38018,7 +38017,7 @@
       <c r="AX702" s="2"/>
       <c r="AY702" s="2"/>
     </row>
-    <row r="703" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -38071,7 +38070,7 @@
       <c r="AX703" s="2"/>
       <c r="AY703" s="2"/>
     </row>
-    <row r="704" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -38124,7 +38123,7 @@
       <c r="AX704" s="2"/>
       <c r="AY704" s="2"/>
     </row>
-    <row r="705" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -38177,7 +38176,7 @@
       <c r="AX705" s="2"/>
       <c r="AY705" s="2"/>
     </row>
-    <row r="706" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -38230,7 +38229,7 @@
       <c r="AX706" s="2"/>
       <c r="AY706" s="2"/>
     </row>
-    <row r="707" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -38283,7 +38282,7 @@
       <c r="AX707" s="2"/>
       <c r="AY707" s="2"/>
     </row>
-    <row r="708" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -38336,7 +38335,7 @@
       <c r="AX708" s="2"/>
       <c r="AY708" s="2"/>
     </row>
-    <row r="709" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -38389,7 +38388,7 @@
       <c r="AX709" s="2"/>
       <c r="AY709" s="2"/>
     </row>
-    <row r="710" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -38442,7 +38441,7 @@
       <c r="AX710" s="2"/>
       <c r="AY710" s="2"/>
     </row>
-    <row r="711" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -38495,7 +38494,7 @@
       <c r="AX711" s="2"/>
       <c r="AY711" s="2"/>
     </row>
-    <row r="712" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -38548,7 +38547,7 @@
       <c r="AX712" s="2"/>
       <c r="AY712" s="2"/>
     </row>
-    <row r="713" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -38601,7 +38600,7 @@
       <c r="AX713" s="2"/>
       <c r="AY713" s="2"/>
     </row>
-    <row r="714" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -38654,7 +38653,7 @@
       <c r="AX714" s="2"/>
       <c r="AY714" s="2"/>
     </row>
-    <row r="715" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -38707,7 +38706,7 @@
       <c r="AX715" s="2"/>
       <c r="AY715" s="2"/>
     </row>
-    <row r="716" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -38760,7 +38759,7 @@
       <c r="AX716" s="2"/>
       <c r="AY716" s="2"/>
     </row>
-    <row r="717" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -38813,7 +38812,7 @@
       <c r="AX717" s="2"/>
       <c r="AY717" s="2"/>
     </row>
-    <row r="718" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -38866,7 +38865,7 @@
       <c r="AX718" s="2"/>
       <c r="AY718" s="2"/>
     </row>
-    <row r="719" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -38919,7 +38918,7 @@
       <c r="AX719" s="2"/>
       <c r="AY719" s="2"/>
     </row>
-    <row r="720" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -38972,7 +38971,7 @@
       <c r="AX720" s="2"/>
       <c r="AY720" s="2"/>
     </row>
-    <row r="721" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -39025,7 +39024,7 @@
       <c r="AX721" s="2"/>
       <c r="AY721" s="2"/>
     </row>
-    <row r="722" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -39078,7 +39077,7 @@
       <c r="AX722" s="2"/>
       <c r="AY722" s="2"/>
     </row>
-    <row r="723" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -39131,7 +39130,7 @@
       <c r="AX723" s="2"/>
       <c r="AY723" s="2"/>
     </row>
-    <row r="724" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -39184,7 +39183,7 @@
       <c r="AX724" s="2"/>
       <c r="AY724" s="2"/>
     </row>
-    <row r="725" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -39237,7 +39236,7 @@
       <c r="AX725" s="2"/>
       <c r="AY725" s="2"/>
     </row>
-    <row r="726" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -39290,7 +39289,7 @@
       <c r="AX726" s="2"/>
       <c r="AY726" s="2"/>
     </row>
-    <row r="727" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -39343,7 +39342,7 @@
       <c r="AX727" s="2"/>
       <c r="AY727" s="2"/>
     </row>
-    <row r="728" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -39396,7 +39395,7 @@
       <c r="AX728" s="2"/>
       <c r="AY728" s="2"/>
     </row>
-    <row r="729" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -39449,7 +39448,7 @@
       <c r="AX729" s="2"/>
       <c r="AY729" s="2"/>
     </row>
-    <row r="730" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -39502,7 +39501,7 @@
       <c r="AX730" s="2"/>
       <c r="AY730" s="2"/>
     </row>
-    <row r="731" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -39555,7 +39554,7 @@
       <c r="AX731" s="2"/>
       <c r="AY731" s="2"/>
     </row>
-    <row r="732" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -39608,7 +39607,7 @@
       <c r="AX732" s="2"/>
       <c r="AY732" s="2"/>
     </row>
-    <row r="733" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -39661,7 +39660,7 @@
       <c r="AX733" s="2"/>
       <c r="AY733" s="2"/>
     </row>
-    <row r="734" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -39714,7 +39713,7 @@
       <c r="AX734" s="2"/>
       <c r="AY734" s="2"/>
     </row>
-    <row r="735" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -39767,7 +39766,7 @@
       <c r="AX735" s="2"/>
       <c r="AY735" s="2"/>
     </row>
-    <row r="736" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -39820,7 +39819,7 @@
       <c r="AX736" s="2"/>
       <c r="AY736" s="2"/>
     </row>
-    <row r="737" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -39873,7 +39872,7 @@
       <c r="AX737" s="2"/>
       <c r="AY737" s="2"/>
     </row>
-    <row r="738" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -39926,7 +39925,7 @@
       <c r="AX738" s="2"/>
       <c r="AY738" s="2"/>
     </row>
-    <row r="739" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -39979,7 +39978,7 @@
       <c r="AX739" s="2"/>
       <c r="AY739" s="2"/>
     </row>
-    <row r="740" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -40032,7 +40031,7 @@
       <c r="AX740" s="2"/>
       <c r="AY740" s="2"/>
     </row>
-    <row r="741" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -40085,7 +40084,7 @@
       <c r="AX741" s="2"/>
       <c r="AY741" s="2"/>
     </row>
-    <row r="742" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -40138,7 +40137,7 @@
       <c r="AX742" s="2"/>
       <c r="AY742" s="2"/>
     </row>
-    <row r="743" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -40191,7 +40190,7 @@
       <c r="AX743" s="2"/>
       <c r="AY743" s="2"/>
     </row>
-    <row r="744" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -40244,7 +40243,7 @@
       <c r="AX744" s="2"/>
       <c r="AY744" s="2"/>
     </row>
-    <row r="745" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -40297,7 +40296,7 @@
       <c r="AX745" s="2"/>
       <c r="AY745" s="2"/>
     </row>
-    <row r="746" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -40350,7 +40349,7 @@
       <c r="AX746" s="2"/>
       <c r="AY746" s="2"/>
     </row>
-    <row r="747" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -40403,7 +40402,7 @@
       <c r="AX747" s="2"/>
       <c r="AY747" s="2"/>
     </row>
-    <row r="748" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -40456,7 +40455,7 @@
       <c r="AX748" s="2"/>
       <c r="AY748" s="2"/>
     </row>
-    <row r="749" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -40509,7 +40508,7 @@
       <c r="AX749" s="2"/>
       <c r="AY749" s="2"/>
     </row>
-    <row r="750" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -40562,7 +40561,7 @@
       <c r="AX750" s="2"/>
       <c r="AY750" s="2"/>
     </row>
-    <row r="751" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -40615,7 +40614,7 @@
       <c r="AX751" s="2"/>
       <c r="AY751" s="2"/>
     </row>
-    <row r="752" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -40668,7 +40667,7 @@
       <c r="AX752" s="2"/>
       <c r="AY752" s="2"/>
     </row>
-    <row r="753" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -40721,7 +40720,7 @@
       <c r="AX753" s="2"/>
       <c r="AY753" s="2"/>
     </row>
-    <row r="754" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -40774,7 +40773,7 @@
       <c r="AX754" s="2"/>
       <c r="AY754" s="2"/>
     </row>
-    <row r="755" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -40827,7 +40826,7 @@
       <c r="AX755" s="2"/>
       <c r="AY755" s="2"/>
     </row>
-    <row r="756" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -40880,7 +40879,7 @@
       <c r="AX756" s="2"/>
       <c r="AY756" s="2"/>
     </row>
-    <row r="757" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -40933,7 +40932,7 @@
       <c r="AX757" s="2"/>
       <c r="AY757" s="2"/>
     </row>
-    <row r="758" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -40986,7 +40985,7 @@
       <c r="AX758" s="2"/>
       <c r="AY758" s="2"/>
     </row>
-    <row r="759" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -41039,7 +41038,7 @@
       <c r="AX759" s="2"/>
       <c r="AY759" s="2"/>
     </row>
-    <row r="760" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -41092,7 +41091,7 @@
       <c r="AX760" s="2"/>
       <c r="AY760" s="2"/>
     </row>
-    <row r="761" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -41145,7 +41144,7 @@
       <c r="AX761" s="2"/>
       <c r="AY761" s="2"/>
     </row>
-    <row r="762" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -41198,7 +41197,7 @@
       <c r="AX762" s="2"/>
       <c r="AY762" s="2"/>
     </row>
-    <row r="763" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -41251,7 +41250,7 @@
       <c r="AX763" s="2"/>
       <c r="AY763" s="2"/>
     </row>
-    <row r="764" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -41304,7 +41303,7 @@
       <c r="AX764" s="2"/>
       <c r="AY764" s="2"/>
     </row>
-    <row r="765" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -41357,7 +41356,7 @@
       <c r="AX765" s="2"/>
       <c r="AY765" s="2"/>
     </row>
-    <row r="766" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -41410,7 +41409,7 @@
       <c r="AX766" s="2"/>
       <c r="AY766" s="2"/>
     </row>
-    <row r="767" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -41463,7 +41462,7 @@
       <c r="AX767" s="2"/>
       <c r="AY767" s="2"/>
     </row>
-    <row r="768" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -41516,7 +41515,7 @@
       <c r="AX768" s="2"/>
       <c r="AY768" s="2"/>
     </row>
-    <row r="769" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -41569,7 +41568,7 @@
       <c r="AX769" s="2"/>
       <c r="AY769" s="2"/>
     </row>
-    <row r="770" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -41622,7 +41621,7 @@
       <c r="AX770" s="2"/>
       <c r="AY770" s="2"/>
     </row>
-    <row r="771" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -41675,7 +41674,7 @@
       <c r="AX771" s="2"/>
       <c r="AY771" s="2"/>
     </row>
-    <row r="772" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -41728,7 +41727,7 @@
       <c r="AX772" s="2"/>
       <c r="AY772" s="2"/>
     </row>
-    <row r="773" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -41781,7 +41780,7 @@
       <c r="AX773" s="2"/>
       <c r="AY773" s="2"/>
     </row>
-    <row r="774" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -41834,7 +41833,7 @@
       <c r="AX774" s="2"/>
       <c r="AY774" s="2"/>
     </row>
-    <row r="775" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -41887,7 +41886,7 @@
       <c r="AX775" s="2"/>
       <c r="AY775" s="2"/>
     </row>
-    <row r="776" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -41940,7 +41939,7 @@
       <c r="AX776" s="2"/>
       <c r="AY776" s="2"/>
     </row>
-    <row r="777" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -41993,7 +41992,7 @@
       <c r="AX777" s="2"/>
       <c r="AY777" s="2"/>
     </row>
-    <row r="778" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -42046,7 +42045,7 @@
       <c r="AX778" s="2"/>
       <c r="AY778" s="2"/>
     </row>
-    <row r="779" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -42099,7 +42098,7 @@
       <c r="AX779" s="2"/>
       <c r="AY779" s="2"/>
     </row>
-    <row r="780" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -42152,7 +42151,7 @@
       <c r="AX780" s="2"/>
       <c r="AY780" s="2"/>
     </row>
-    <row r="781" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -42205,7 +42204,7 @@
       <c r="AX781" s="2"/>
       <c r="AY781" s="2"/>
     </row>
-    <row r="782" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -42258,7 +42257,7 @@
       <c r="AX782" s="2"/>
       <c r="AY782" s="2"/>
     </row>
-    <row r="783" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -42311,7 +42310,7 @@
       <c r="AX783" s="2"/>
       <c r="AY783" s="2"/>
     </row>
-    <row r="784" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -42364,7 +42363,7 @@
       <c r="AX784" s="2"/>
       <c r="AY784" s="2"/>
     </row>
-    <row r="785" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -42417,7 +42416,7 @@
       <c r="AX785" s="2"/>
       <c r="AY785" s="2"/>
     </row>
-    <row r="786" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -42470,7 +42469,7 @@
       <c r="AX786" s="2"/>
       <c r="AY786" s="2"/>
     </row>
-    <row r="787" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -42523,7 +42522,7 @@
       <c r="AX787" s="2"/>
       <c r="AY787" s="2"/>
     </row>
-    <row r="788" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -42576,7 +42575,7 @@
       <c r="AX788" s="2"/>
       <c r="AY788" s="2"/>
     </row>
-    <row r="789" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -42629,7 +42628,7 @@
       <c r="AX789" s="2"/>
       <c r="AY789" s="2"/>
     </row>
-    <row r="790" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -42682,7 +42681,7 @@
       <c r="AX790" s="2"/>
       <c r="AY790" s="2"/>
     </row>
-    <row r="791" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -42735,7 +42734,7 @@
       <c r="AX791" s="2"/>
       <c r="AY791" s="2"/>
     </row>
-    <row r="792" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -42788,7 +42787,7 @@
       <c r="AX792" s="2"/>
       <c r="AY792" s="2"/>
     </row>
-    <row r="793" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -42841,7 +42840,7 @@
       <c r="AX793" s="2"/>
       <c r="AY793" s="2"/>
     </row>
-    <row r="794" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -42894,7 +42893,7 @@
       <c r="AX794" s="2"/>
       <c r="AY794" s="2"/>
     </row>
-    <row r="795" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -42947,7 +42946,7 @@
       <c r="AX795" s="2"/>
       <c r="AY795" s="2"/>
     </row>
-    <row r="796" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -43000,7 +42999,7 @@
       <c r="AX796" s="2"/>
       <c r="AY796" s="2"/>
     </row>
-    <row r="797" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -43053,7 +43052,7 @@
       <c r="AX797" s="2"/>
       <c r="AY797" s="2"/>
     </row>
-    <row r="798" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -43106,7 +43105,7 @@
       <c r="AX798" s="2"/>
       <c r="AY798" s="2"/>
     </row>
-    <row r="799" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -43159,7 +43158,7 @@
       <c r="AX799" s="2"/>
       <c r="AY799" s="2"/>
     </row>
-    <row r="800" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -43212,7 +43211,7 @@
       <c r="AX800" s="2"/>
       <c r="AY800" s="2"/>
     </row>
-    <row r="801" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -43265,7 +43264,7 @@
       <c r="AX801" s="2"/>
       <c r="AY801" s="2"/>
     </row>
-    <row r="802" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -43318,7 +43317,7 @@
       <c r="AX802" s="2"/>
       <c r="AY802" s="2"/>
     </row>
-    <row r="803" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -43371,7 +43370,7 @@
       <c r="AX803" s="2"/>
       <c r="AY803" s="2"/>
     </row>
-    <row r="804" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -43424,7 +43423,7 @@
       <c r="AX804" s="2"/>
       <c r="AY804" s="2"/>
     </row>
-    <row r="805" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -43477,7 +43476,7 @@
       <c r="AX805" s="2"/>
       <c r="AY805" s="2"/>
     </row>
-    <row r="806" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -43530,7 +43529,7 @@
       <c r="AX806" s="2"/>
       <c r="AY806" s="2"/>
     </row>
-    <row r="807" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -43583,7 +43582,7 @@
       <c r="AX807" s="2"/>
       <c r="AY807" s="2"/>
     </row>
-    <row r="808" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -43636,7 +43635,7 @@
       <c r="AX808" s="2"/>
       <c r="AY808" s="2"/>
     </row>
-    <row r="809" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -43689,7 +43688,7 @@
       <c r="AX809" s="2"/>
       <c r="AY809" s="2"/>
     </row>
-    <row r="810" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -43742,7 +43741,7 @@
       <c r="AX810" s="2"/>
       <c r="AY810" s="2"/>
     </row>
-    <row r="811" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -43795,7 +43794,7 @@
       <c r="AX811" s="2"/>
       <c r="AY811" s="2"/>
     </row>
-    <row r="812" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -43848,7 +43847,7 @@
       <c r="AX812" s="2"/>
       <c r="AY812" s="2"/>
     </row>
-    <row r="813" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -43901,7 +43900,7 @@
       <c r="AX813" s="2"/>
       <c r="AY813" s="2"/>
     </row>
-    <row r="814" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -43954,7 +43953,7 @@
       <c r="AX814" s="2"/>
       <c r="AY814" s="2"/>
     </row>
-    <row r="815" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -44007,7 +44006,7 @@
       <c r="AX815" s="2"/>
       <c r="AY815" s="2"/>
     </row>
-    <row r="816" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -44060,7 +44059,7 @@
       <c r="AX816" s="2"/>
       <c r="AY816" s="2"/>
     </row>
-    <row r="817" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -44113,7 +44112,7 @@
       <c r="AX817" s="2"/>
       <c r="AY817" s="2"/>
     </row>
-    <row r="818" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -44166,7 +44165,7 @@
       <c r="AX818" s="2"/>
       <c r="AY818" s="2"/>
     </row>
-    <row r="819" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -44219,7 +44218,7 @@
       <c r="AX819" s="2"/>
       <c r="AY819" s="2"/>
     </row>
-    <row r="820" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -44272,7 +44271,7 @@
       <c r="AX820" s="2"/>
       <c r="AY820" s="2"/>
     </row>
-    <row r="821" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -44325,7 +44324,7 @@
       <c r="AX821" s="2"/>
       <c r="AY821" s="2"/>
     </row>
-    <row r="822" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -44378,7 +44377,7 @@
       <c r="AX822" s="2"/>
       <c r="AY822" s="2"/>
     </row>
-    <row r="823" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -44431,7 +44430,7 @@
       <c r="AX823" s="2"/>
       <c r="AY823" s="2"/>
     </row>
-    <row r="824" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -44484,7 +44483,7 @@
       <c r="AX824" s="2"/>
       <c r="AY824" s="2"/>
     </row>
-    <row r="825" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -44537,7 +44536,7 @@
       <c r="AX825" s="2"/>
       <c r="AY825" s="2"/>
     </row>
-    <row r="826" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -44590,7 +44589,7 @@
       <c r="AX826" s="2"/>
       <c r="AY826" s="2"/>
     </row>
-    <row r="827" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -44643,7 +44642,7 @@
       <c r="AX827" s="2"/>
       <c r="AY827" s="2"/>
     </row>
-    <row r="828" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -44696,7 +44695,7 @@
       <c r="AX828" s="2"/>
       <c r="AY828" s="2"/>
     </row>
-    <row r="829" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -44749,7 +44748,7 @@
       <c r="AX829" s="2"/>
       <c r="AY829" s="2"/>
     </row>
-    <row r="830" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -44802,7 +44801,7 @@
       <c r="AX830" s="2"/>
       <c r="AY830" s="2"/>
     </row>
-    <row r="831" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -44855,7 +44854,7 @@
       <c r="AX831" s="2"/>
       <c r="AY831" s="2"/>
     </row>
-    <row r="832" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -44908,7 +44907,7 @@
       <c r="AX832" s="2"/>
       <c r="AY832" s="2"/>
     </row>
-    <row r="833" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -44961,7 +44960,7 @@
       <c r="AX833" s="2"/>
       <c r="AY833" s="2"/>
     </row>
-    <row r="834" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -45014,7 +45013,7 @@
       <c r="AX834" s="2"/>
       <c r="AY834" s="2"/>
     </row>
-    <row r="835" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -45067,7 +45066,7 @@
       <c r="AX835" s="2"/>
       <c r="AY835" s="2"/>
     </row>
-    <row r="836" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -45120,7 +45119,7 @@
       <c r="AX836" s="2"/>
       <c r="AY836" s="2"/>
     </row>
-    <row r="837" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -45173,7 +45172,7 @@
       <c r="AX837" s="2"/>
       <c r="AY837" s="2"/>
     </row>
-    <row r="838" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -45226,7 +45225,7 @@
       <c r="AX838" s="2"/>
       <c r="AY838" s="2"/>
     </row>
-    <row r="839" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -45279,7 +45278,7 @@
       <c r="AX839" s="2"/>
       <c r="AY839" s="2"/>
     </row>
-    <row r="840" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -45332,7 +45331,7 @@
       <c r="AX840" s="2"/>
       <c r="AY840" s="2"/>
     </row>
-    <row r="841" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -45385,7 +45384,7 @@
       <c r="AX841" s="2"/>
       <c r="AY841" s="2"/>
     </row>
-    <row r="842" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -45438,7 +45437,7 @@
       <c r="AX842" s="2"/>
       <c r="AY842" s="2"/>
     </row>
-    <row r="843" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -45491,7 +45490,7 @@
       <c r="AX843" s="2"/>
       <c r="AY843" s="2"/>
     </row>
-    <row r="844" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -45544,7 +45543,7 @@
       <c r="AX844" s="2"/>
       <c r="AY844" s="2"/>
     </row>
-    <row r="845" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -45597,7 +45596,7 @@
       <c r="AX845" s="2"/>
       <c r="AY845" s="2"/>
     </row>
-    <row r="846" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -45650,7 +45649,7 @@
       <c r="AX846" s="2"/>
       <c r="AY846" s="2"/>
     </row>
-    <row r="847" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -45703,7 +45702,7 @@
       <c r="AX847" s="2"/>
       <c r="AY847" s="2"/>
     </row>
-    <row r="848" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -45756,7 +45755,7 @@
       <c r="AX848" s="2"/>
       <c r="AY848" s="2"/>
     </row>
-    <row r="849" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -45809,7 +45808,7 @@
       <c r="AX849" s="2"/>
       <c r="AY849" s="2"/>
     </row>
-    <row r="850" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -45862,7 +45861,7 @@
       <c r="AX850" s="2"/>
       <c r="AY850" s="2"/>
     </row>
-    <row r="851" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -45915,7 +45914,7 @@
       <c r="AX851" s="2"/>
       <c r="AY851" s="2"/>
     </row>
-    <row r="852" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -45968,7 +45967,7 @@
       <c r="AX852" s="2"/>
       <c r="AY852" s="2"/>
     </row>
-    <row r="853" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -46021,7 +46020,7 @@
       <c r="AX853" s="2"/>
       <c r="AY853" s="2"/>
     </row>
-    <row r="854" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -46074,7 +46073,7 @@
       <c r="AX854" s="2"/>
       <c r="AY854" s="2"/>
     </row>
-    <row r="855" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -46127,7 +46126,7 @@
       <c r="AX855" s="2"/>
       <c r="AY855" s="2"/>
     </row>
-    <row r="856" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -46180,7 +46179,7 @@
       <c r="AX856" s="2"/>
       <c r="AY856" s="2"/>
     </row>
-    <row r="857" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -46233,7 +46232,7 @@
       <c r="AX857" s="2"/>
       <c r="AY857" s="2"/>
     </row>
-    <row r="858" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -46286,7 +46285,7 @@
       <c r="AX858" s="2"/>
       <c r="AY858" s="2"/>
     </row>
-    <row r="859" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -46339,7 +46338,7 @@
       <c r="AX859" s="2"/>
       <c r="AY859" s="2"/>
     </row>
-    <row r="860" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -46392,7 +46391,7 @@
       <c r="AX860" s="2"/>
       <c r="AY860" s="2"/>
     </row>
-    <row r="861" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -46445,7 +46444,7 @@
       <c r="AX861" s="2"/>
       <c r="AY861" s="2"/>
     </row>
-    <row r="862" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -46498,7 +46497,7 @@
       <c r="AX862" s="2"/>
       <c r="AY862" s="2"/>
     </row>
-    <row r="863" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -46551,7 +46550,7 @@
       <c r="AX863" s="2"/>
       <c r="AY863" s="2"/>
     </row>
-    <row r="864" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -46604,7 +46603,7 @@
       <c r="AX864" s="2"/>
       <c r="AY864" s="2"/>
     </row>
-    <row r="865" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -46657,7 +46656,7 @@
       <c r="AX865" s="2"/>
       <c r="AY865" s="2"/>
     </row>
-    <row r="866" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -46710,7 +46709,7 @@
       <c r="AX866" s="2"/>
       <c r="AY866" s="2"/>
     </row>
-    <row r="867" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -46763,7 +46762,7 @@
       <c r="AX867" s="2"/>
       <c r="AY867" s="2"/>
     </row>
-    <row r="868" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -46816,7 +46815,7 @@
       <c r="AX868" s="2"/>
       <c r="AY868" s="2"/>
     </row>
-    <row r="869" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -46869,7 +46868,7 @@
       <c r="AX869" s="2"/>
       <c r="AY869" s="2"/>
     </row>
-    <row r="870" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -46922,7 +46921,7 @@
       <c r="AX870" s="2"/>
       <c r="AY870" s="2"/>
     </row>
-    <row r="871" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -46975,7 +46974,7 @@
       <c r="AX871" s="2"/>
       <c r="AY871" s="2"/>
     </row>
-    <row r="872" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -47028,7 +47027,7 @@
       <c r="AX872" s="2"/>
       <c r="AY872" s="2"/>
     </row>
-    <row r="873" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -47081,7 +47080,7 @@
       <c r="AX873" s="2"/>
       <c r="AY873" s="2"/>
     </row>
-    <row r="874" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -47134,7 +47133,7 @@
       <c r="AX874" s="2"/>
       <c r="AY874" s="2"/>
     </row>
-    <row r="875" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -47187,7 +47186,7 @@
       <c r="AX875" s="2"/>
       <c r="AY875" s="2"/>
     </row>
-    <row r="876" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -47240,7 +47239,7 @@
       <c r="AX876" s="2"/>
       <c r="AY876" s="2"/>
     </row>
-    <row r="877" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -47293,7 +47292,7 @@
       <c r="AX877" s="2"/>
       <c r="AY877" s="2"/>
     </row>
-    <row r="878" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -47346,7 +47345,7 @@
       <c r="AX878" s="2"/>
       <c r="AY878" s="2"/>
     </row>
-    <row r="879" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -47399,7 +47398,7 @@
       <c r="AX879" s="2"/>
       <c r="AY879" s="2"/>
     </row>
-    <row r="880" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -47452,7 +47451,7 @@
       <c r="AX880" s="2"/>
       <c r="AY880" s="2"/>
     </row>
-    <row r="881" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -47505,7 +47504,7 @@
       <c r="AX881" s="2"/>
       <c r="AY881" s="2"/>
     </row>
-    <row r="882" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -47558,7 +47557,7 @@
       <c r="AX882" s="2"/>
       <c r="AY882" s="2"/>
     </row>
-    <row r="883" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -47611,7 +47610,7 @@
       <c r="AX883" s="2"/>
       <c r="AY883" s="2"/>
     </row>
-    <row r="884" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -47664,7 +47663,7 @@
       <c r="AX884" s="2"/>
       <c r="AY884" s="2"/>
     </row>
-    <row r="885" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -47717,7 +47716,7 @@
       <c r="AX885" s="2"/>
       <c r="AY885" s="2"/>
     </row>
-    <row r="886" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -47770,7 +47769,7 @@
       <c r="AX886" s="2"/>
       <c r="AY886" s="2"/>
     </row>
-    <row r="887" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -47823,7 +47822,7 @@
       <c r="AX887" s="2"/>
       <c r="AY887" s="2"/>
     </row>
-    <row r="888" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -47876,7 +47875,7 @@
       <c r="AX888" s="2"/>
       <c r="AY888" s="2"/>
     </row>
-    <row r="889" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -47929,7 +47928,7 @@
       <c r="AX889" s="2"/>
       <c r="AY889" s="2"/>
     </row>
-    <row r="890" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -47982,7 +47981,7 @@
       <c r="AX890" s="2"/>
       <c r="AY890" s="2"/>
     </row>
-    <row r="891" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -48035,7 +48034,7 @@
       <c r="AX891" s="2"/>
       <c r="AY891" s="2"/>
     </row>
-    <row r="892" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -48088,7 +48087,7 @@
       <c r="AX892" s="2"/>
       <c r="AY892" s="2"/>
     </row>
-    <row r="893" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -48141,7 +48140,7 @@
       <c r="AX893" s="2"/>
       <c r="AY893" s="2"/>
     </row>
-    <row r="894" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -48194,7 +48193,7 @@
       <c r="AX894" s="2"/>
       <c r="AY894" s="2"/>
     </row>
-    <row r="895" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -48247,7 +48246,7 @@
       <c r="AX895" s="2"/>
       <c r="AY895" s="2"/>
     </row>
-    <row r="896" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -48300,7 +48299,7 @@
       <c r="AX896" s="2"/>
       <c r="AY896" s="2"/>
     </row>
-    <row r="897" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -48353,7 +48352,7 @@
       <c r="AX897" s="2"/>
       <c r="AY897" s="2"/>
     </row>
-    <row r="898" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -48406,7 +48405,7 @@
       <c r="AX898" s="2"/>
       <c r="AY898" s="2"/>
     </row>
-    <row r="899" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -48459,7 +48458,7 @@
       <c r="AX899" s="2"/>
       <c r="AY899" s="2"/>
     </row>
-    <row r="900" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -48512,7 +48511,7 @@
       <c r="AX900" s="2"/>
       <c r="AY900" s="2"/>
     </row>
-    <row r="901" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -48565,7 +48564,7 @@
       <c r="AX901" s="2"/>
       <c r="AY901" s="2"/>
     </row>
-    <row r="902" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -48618,7 +48617,7 @@
       <c r="AX902" s="2"/>
       <c r="AY902" s="2"/>
     </row>
-    <row r="903" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -48671,7 +48670,7 @@
       <c r="AX903" s="2"/>
       <c r="AY903" s="2"/>
     </row>
-    <row r="904" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -48724,7 +48723,7 @@
       <c r="AX904" s="2"/>
       <c r="AY904" s="2"/>
     </row>
-    <row r="905" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -48777,7 +48776,7 @@
       <c r="AX905" s="2"/>
       <c r="AY905" s="2"/>
     </row>
-    <row r="906" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -48830,7 +48829,7 @@
       <c r="AX906" s="2"/>
       <c r="AY906" s="2"/>
     </row>
-    <row r="907" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -48883,7 +48882,7 @@
       <c r="AX907" s="2"/>
       <c r="AY907" s="2"/>
     </row>
-    <row r="908" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -48936,7 +48935,7 @@
       <c r="AX908" s="2"/>
       <c r="AY908" s="2"/>
     </row>
-    <row r="909" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -48989,7 +48988,7 @@
       <c r="AX909" s="2"/>
       <c r="AY909" s="2"/>
     </row>
-    <row r="910" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -49042,7 +49041,7 @@
       <c r="AX910" s="2"/>
       <c r="AY910" s="2"/>
     </row>
-    <row r="911" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -49095,7 +49094,7 @@
       <c r="AX911" s="2"/>
       <c r="AY911" s="2"/>
     </row>
-    <row r="912" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -49148,7 +49147,7 @@
       <c r="AX912" s="2"/>
       <c r="AY912" s="2"/>
     </row>
-    <row r="913" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -49201,7 +49200,7 @@
       <c r="AX913" s="2"/>
       <c r="AY913" s="2"/>
     </row>
-    <row r="914" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -49254,7 +49253,7 @@
       <c r="AX914" s="2"/>
       <c r="AY914" s="2"/>
     </row>
-    <row r="915" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -49307,7 +49306,7 @@
       <c r="AX915" s="2"/>
       <c r="AY915" s="2"/>
     </row>
-    <row r="916" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -49360,7 +49359,7 @@
       <c r="AX916" s="2"/>
       <c r="AY916" s="2"/>
     </row>
-    <row r="917" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -49413,7 +49412,7 @@
       <c r="AX917" s="2"/>
       <c r="AY917" s="2"/>
     </row>
-    <row r="918" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -49466,7 +49465,7 @@
       <c r="AX918" s="2"/>
       <c r="AY918" s="2"/>
     </row>
-    <row r="919" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -49519,7 +49518,7 @@
       <c r="AX919" s="2"/>
       <c r="AY919" s="2"/>
     </row>
-    <row r="920" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -49572,7 +49571,7 @@
       <c r="AX920" s="2"/>
       <c r="AY920" s="2"/>
     </row>
-    <row r="921" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -49625,7 +49624,7 @@
       <c r="AX921" s="2"/>
       <c r="AY921" s="2"/>
     </row>
-    <row r="922" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -49678,7 +49677,7 @@
       <c r="AX922" s="2"/>
       <c r="AY922" s="2"/>
     </row>
-    <row r="923" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -49731,7 +49730,7 @@
       <c r="AX923" s="2"/>
       <c r="AY923" s="2"/>
     </row>
-    <row r="924" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -49784,7 +49783,7 @@
       <c r="AX924" s="2"/>
       <c r="AY924" s="2"/>
     </row>
-    <row r="925" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -49837,7 +49836,7 @@
       <c r="AX925" s="2"/>
       <c r="AY925" s="2"/>
     </row>
-    <row r="926" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -49890,7 +49889,7 @@
       <c r="AX926" s="2"/>
       <c r="AY926" s="2"/>
     </row>
-    <row r="927" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -49943,7 +49942,7 @@
       <c r="AX927" s="2"/>
       <c r="AY927" s="2"/>
     </row>
-    <row r="928" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -49996,7 +49995,7 @@
       <c r="AX928" s="2"/>
       <c r="AY928" s="2"/>
     </row>
-    <row r="929" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -50049,7 +50048,7 @@
       <c r="AX929" s="2"/>
       <c r="AY929" s="2"/>
     </row>
-    <row r="930" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -50102,7 +50101,7 @@
       <c r="AX930" s="2"/>
       <c r="AY930" s="2"/>
     </row>
-    <row r="931" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -50155,7 +50154,7 @@
       <c r="AX931" s="2"/>
       <c r="AY931" s="2"/>
     </row>
-    <row r="932" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -50208,7 +50207,7 @@
       <c r="AX932" s="2"/>
       <c r="AY932" s="2"/>
     </row>
-    <row r="933" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -50261,7 +50260,7 @@
       <c r="AX933" s="2"/>
       <c r="AY933" s="2"/>
     </row>
-    <row r="934" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -50314,7 +50313,7 @@
       <c r="AX934" s="2"/>
       <c r="AY934" s="2"/>
     </row>
-    <row r="935" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -50367,7 +50366,7 @@
       <c r="AX935" s="2"/>
       <c r="AY935" s="2"/>
     </row>
-    <row r="936" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -50420,7 +50419,7 @@
       <c r="AX936" s="2"/>
       <c r="AY936" s="2"/>
     </row>
-    <row r="937" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -50473,7 +50472,7 @@
       <c r="AX937" s="2"/>
       <c r="AY937" s="2"/>
     </row>
-    <row r="938" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -50526,7 +50525,7 @@
       <c r="AX938" s="2"/>
       <c r="AY938" s="2"/>
     </row>
-    <row r="939" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -50579,7 +50578,7 @@
       <c r="AX939" s="2"/>
       <c r="AY939" s="2"/>
     </row>
-    <row r="940" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -50632,7 +50631,7 @@
       <c r="AX940" s="2"/>
       <c r="AY940" s="2"/>
     </row>
-    <row r="941" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -50685,7 +50684,7 @@
       <c r="AX941" s="2"/>
       <c r="AY941" s="2"/>
     </row>
-    <row r="942" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -50738,7 +50737,7 @@
       <c r="AX942" s="2"/>
       <c r="AY942" s="2"/>
     </row>
-    <row r="943" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -50791,7 +50790,7 @@
       <c r="AX943" s="2"/>
       <c r="AY943" s="2"/>
     </row>
-    <row r="944" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -50844,7 +50843,7 @@
       <c r="AX944" s="2"/>
       <c r="AY944" s="2"/>
     </row>
-    <row r="945" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -50897,7 +50896,7 @@
       <c r="AX945" s="2"/>
       <c r="AY945" s="2"/>
     </row>
-    <row r="946" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -50950,7 +50949,7 @@
       <c r="AX946" s="2"/>
       <c r="AY946" s="2"/>
     </row>
-    <row r="947" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -51003,7 +51002,7 @@
       <c r="AX947" s="2"/>
       <c r="AY947" s="2"/>
     </row>
-    <row r="948" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -51056,7 +51055,7 @@
       <c r="AX948" s="2"/>
       <c r="AY948" s="2"/>
     </row>
-    <row r="949" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -51109,7 +51108,7 @@
       <c r="AX949" s="2"/>
       <c r="AY949" s="2"/>
     </row>
-    <row r="950" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -51162,7 +51161,7 @@
       <c r="AX950" s="2"/>
       <c r="AY950" s="2"/>
     </row>
-    <row r="951" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -51215,7 +51214,7 @@
       <c r="AX951" s="2"/>
       <c r="AY951" s="2"/>
     </row>
-    <row r="952" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -51268,7 +51267,7 @@
       <c r="AX952" s="2"/>
       <c r="AY952" s="2"/>
     </row>
-    <row r="953" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -51321,7 +51320,7 @@
       <c r="AX953" s="2"/>
       <c r="AY953" s="2"/>
     </row>
-    <row r="954" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -51374,7 +51373,7 @@
       <c r="AX954" s="2"/>
       <c r="AY954" s="2"/>
     </row>
-    <row r="955" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -51427,7 +51426,7 @@
       <c r="AX955" s="2"/>
       <c r="AY955" s="2"/>
     </row>
-    <row r="956" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -51480,7 +51479,7 @@
       <c r="AX956" s="2"/>
       <c r="AY956" s="2"/>
     </row>
-    <row r="957" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -51533,7 +51532,7 @@
       <c r="AX957" s="2"/>
       <c r="AY957" s="2"/>
     </row>
-    <row r="958" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -51586,7 +51585,7 @@
       <c r="AX958" s="2"/>
       <c r="AY958" s="2"/>
     </row>
-    <row r="959" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -51639,7 +51638,7 @@
       <c r="AX959" s="2"/>
       <c r="AY959" s="2"/>
     </row>
-    <row r="960" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -51692,7 +51691,7 @@
       <c r="AX960" s="2"/>
       <c r="AY960" s="2"/>
     </row>
-    <row r="961" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -51745,7 +51744,7 @@
       <c r="AX961" s="2"/>
       <c r="AY961" s="2"/>
     </row>
-    <row r="962" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -51798,7 +51797,7 @@
       <c r="AX962" s="2"/>
       <c r="AY962" s="2"/>
     </row>
-    <row r="963" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -51851,7 +51850,7 @@
       <c r="AX963" s="2"/>
       <c r="AY963" s="2"/>
     </row>
-    <row r="964" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -51904,7 +51903,7 @@
       <c r="AX964" s="2"/>
       <c r="AY964" s="2"/>
     </row>
-    <row r="965" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -51957,7 +51956,7 @@
       <c r="AX965" s="2"/>
       <c r="AY965" s="2"/>
     </row>
-    <row r="966" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -52010,7 +52009,7 @@
       <c r="AX966" s="2"/>
       <c r="AY966" s="2"/>
     </row>
-    <row r="967" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -52063,7 +52062,7 @@
       <c r="AX967" s="2"/>
       <c r="AY967" s="2"/>
     </row>
-    <row r="968" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -52116,7 +52115,7 @@
       <c r="AX968" s="2"/>
       <c r="AY968" s="2"/>
     </row>
-    <row r="969" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -52169,7 +52168,7 @@
       <c r="AX969" s="2"/>
       <c r="AY969" s="2"/>
     </row>
-    <row r="970" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -52222,7 +52221,7 @@
       <c r="AX970" s="2"/>
       <c r="AY970" s="2"/>
     </row>
-    <row r="971" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -52275,7 +52274,7 @@
       <c r="AX971" s="2"/>
       <c r="AY971" s="2"/>
     </row>
-    <row r="972" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -52328,7 +52327,7 @@
       <c r="AX972" s="2"/>
       <c r="AY972" s="2"/>
     </row>
-    <row r="973" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -52381,7 +52380,7 @@
       <c r="AX973" s="2"/>
       <c r="AY973" s="2"/>
     </row>
-    <row r="974" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -52434,7 +52433,7 @@
       <c r="AX974" s="2"/>
       <c r="AY974" s="2"/>
     </row>
-    <row r="975" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -52487,7 +52486,7 @@
       <c r="AX975" s="2"/>
       <c r="AY975" s="2"/>
     </row>
-    <row r="976" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -52540,7 +52539,7 @@
       <c r="AX976" s="2"/>
       <c r="AY976" s="2"/>
     </row>
-    <row r="977" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -52593,7 +52592,7 @@
       <c r="AX977" s="2"/>
       <c r="AY977" s="2"/>
     </row>
-    <row r="978" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -52646,7 +52645,7 @@
       <c r="AX978" s="2"/>
       <c r="AY978" s="2"/>
     </row>
-    <row r="979" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -52699,7 +52698,7 @@
       <c r="AX979" s="2"/>
       <c r="AY979" s="2"/>
     </row>
-    <row r="980" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -52752,7 +52751,7 @@
       <c r="AX980" s="2"/>
       <c r="AY980" s="2"/>
     </row>
-    <row r="981" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -52805,7 +52804,7 @@
       <c r="AX981" s="2"/>
       <c r="AY981" s="2"/>
     </row>
-    <row r="982" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -52858,7 +52857,7 @@
       <c r="AX982" s="2"/>
       <c r="AY982" s="2"/>
     </row>
-    <row r="983" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -52911,7 +52910,7 @@
       <c r="AX983" s="2"/>
       <c r="AY983" s="2"/>
     </row>
-    <row r="984" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -52964,7 +52963,7 @@
       <c r="AX984" s="2"/>
       <c r="AY984" s="2"/>
     </row>
-    <row r="985" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -53017,7 +53016,7 @@
       <c r="AX985" s="2"/>
       <c r="AY985" s="2"/>
     </row>
-    <row r="986" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -53070,7 +53069,7 @@
       <c r="AX986" s="2"/>
       <c r="AY986" s="2"/>
     </row>
-    <row r="987" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -53123,7 +53122,7 @@
       <c r="AX987" s="2"/>
       <c r="AY987" s="2"/>
     </row>
-    <row r="988" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -53176,7 +53175,7 @@
       <c r="AX988" s="2"/>
       <c r="AY988" s="2"/>
     </row>
-    <row r="989" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -53229,7 +53228,7 @@
       <c r="AX989" s="2"/>
       <c r="AY989" s="2"/>
     </row>
-    <row r="990" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -53282,7 +53281,7 @@
       <c r="AX990" s="2"/>
       <c r="AY990" s="2"/>
     </row>
-    <row r="991" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -53335,7 +53334,7 @@
       <c r="AX991" s="2"/>
       <c r="AY991" s="2"/>
     </row>
-    <row r="992" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -53388,7 +53387,7 @@
       <c r="AX992" s="2"/>
       <c r="AY992" s="2"/>
     </row>
-    <row r="993" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -53441,7 +53440,7 @@
       <c r="AX993" s="2"/>
       <c r="AY993" s="2"/>
     </row>
-    <row r="994" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -53494,7 +53493,7 @@
       <c r="AX994" s="2"/>
       <c r="AY994" s="2"/>
     </row>
-    <row r="995" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -53547,7 +53546,7 @@
       <c r="AX995" s="2"/>
       <c r="AY995" s="2"/>
     </row>
-    <row r="996" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>

--- a/Data Files/Input Validation/35. foreignType/Auto_ForeignType_C9.xlsx
+++ b/Data Files/Input Validation/35. foreignType/Auto_ForeignType_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9135FAD-E1C9-494A-BB67-5129671E3F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0103BE-8C94-47A4-807B-A46AA19A934E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/35. foreignType/Auto_ForeignType_C9.xlsx
+++ b/Data Files/Input Validation/35. foreignType/Auto_ForeignType_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0103BE-8C94-47A4-807B-A46AA19A934E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B986D66B-F930-4840-9461-33F1EF3AF3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -311,9 +311,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -351,7 +351,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -457,7 +457,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -599,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/35. foreignType/Auto_ForeignType_C9.xlsx
+++ b/Data Files/Input Validation/35. foreignType/Auto_ForeignType_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718084F9-E29E-43A1-893C-FB295D7AECCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1ADCFC-65A7-42C5-90D7-FBE3F3B4E809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -311,9 +311,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -351,7 +351,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -457,7 +457,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -599,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/35. foreignType/Auto_ForeignType_C9.xlsx
+++ b/Data Files/Input Validation/35. foreignType/Auto_ForeignType_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1ADCFC-65A7-42C5-90D7-FBE3F3B4E809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5A613C-022E-4006-869B-2C1F011168AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/35. foreignType/Auto_ForeignType_C9.xlsx
+++ b/Data Files/Input Validation/35. foreignType/Auto_ForeignType_C9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5A613C-022E-4006-869B-2C1F011168AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C17B28A-972F-4DF0-B059-90FF3E554459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
